--- a/REGULAR/OJT/PAYAD, EDGARDO.xlsx
+++ b/REGULAR/OJT/PAYAD, EDGARDO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619F31AD-8E69-485E-B1FA-1E512BE0B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -261,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -944,25 +943,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K262" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K262" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1269,7 +1268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1278,25 +1277,25 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2160" activePane="bottomLeft"/>
       <selection activeCell="J4" sqref="J4:K4"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1316,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1335,7 +1334,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1355,7 +1354,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1363,7 +1362,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1376,7 +1375,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -1393,7 +1392,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1437,7 +1436,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>149.417</v>
+        <v>154.417</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1447,12 +1446,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>211.417</v>
+        <v>221.417</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>63</v>
       </c>
@@ -1470,7 +1469,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>39462</v>
       </c>
@@ -1490,7 +1489,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>39479</v>
       </c>
@@ -1510,7 +1509,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>39508</v>
@@ -1531,7 +1530,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>39539</v>
@@ -1552,7 +1551,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A22" si="0">EDATE(A14,1)</f>
         <v>39569</v>
@@ -1573,7 +1572,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>39600</v>
@@ -1594,7 +1593,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>39630</v>
@@ -1615,7 +1614,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>39661</v>
@@ -1636,7 +1635,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>39692</v>
@@ -1657,7 +1656,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>39722</v>
@@ -1678,7 +1677,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>39753</v>
@@ -1699,7 +1698,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>39783</v>
@@ -1724,7 +1723,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>64</v>
       </c>
@@ -1742,7 +1741,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f>EDATE(A22,1)</f>
         <v>39814</v>
@@ -1763,7 +1762,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f>EDATE(A24,1)</f>
         <v>39845</v>
@@ -1784,7 +1783,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" ref="A26:A34" si="1">EDATE(A25,1)</f>
         <v>39873</v>
@@ -1805,7 +1804,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="1"/>
         <v>39904</v>
@@ -1826,7 +1825,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>39934</v>
@@ -1847,7 +1846,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>39965</v>
@@ -1868,7 +1867,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="1"/>
         <v>39995</v>
@@ -1889,7 +1888,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="1"/>
         <v>40026</v>
@@ -1910,7 +1909,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="1"/>
         <v>40057</v>
@@ -1931,7 +1930,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="1"/>
         <v>40087</v>
@@ -1952,7 +1951,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="1"/>
         <v>40118</v>
@@ -1973,7 +1972,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f>EDATE(A34,1)</f>
         <v>40148</v>
@@ -1998,7 +1997,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>65</v>
       </c>
@@ -2016,7 +2015,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A35,1)</f>
         <v>40179</v>
@@ -2037,7 +2036,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f>EDATE(A37,1)</f>
         <v>40210</v>
@@ -2058,7 +2057,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" ref="A39:A47" si="2">EDATE(A38,1)</f>
         <v>40238</v>
@@ -2079,7 +2078,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="2"/>
         <v>40269</v>
@@ -2100,7 +2099,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="2"/>
         <v>40299</v>
@@ -2121,7 +2120,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="2"/>
         <v>40330</v>
@@ -2142,7 +2141,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="2"/>
         <v>40360</v>
@@ -2163,7 +2162,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="2"/>
         <v>40391</v>
@@ -2184,7 +2183,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="2"/>
         <v>40422</v>
@@ -2205,7 +2204,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="2"/>
         <v>40452</v>
@@ -2226,7 +2225,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="2"/>
         <v>40483</v>
@@ -2247,7 +2246,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f>EDATE(A47,1)</f>
         <v>40513</v>
@@ -2272,7 +2271,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>66</v>
       </c>
@@ -2290,7 +2289,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f>EDATE(A48,1)</f>
         <v>40544</v>
@@ -2311,7 +2310,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f>EDATE(A50,1)</f>
         <v>40575</v>
@@ -2332,7 +2331,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" ref="A52:A61" si="3">EDATE(A51,1)</f>
         <v>40603</v>
@@ -2353,7 +2352,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="3"/>
         <v>40634</v>
@@ -2374,7 +2373,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="3"/>
         <v>40664</v>
@@ -2395,7 +2394,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f t="shared" si="3"/>
         <v>40695</v>
@@ -2416,7 +2415,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f t="shared" si="3"/>
         <v>40725</v>
@@ -2437,7 +2436,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -2458,7 +2457,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f t="shared" si="3"/>
         <v>40787</v>
@@ -2479,7 +2478,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="3"/>
         <v>40817</v>
@@ -2500,7 +2499,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="3"/>
         <v>40848</v>
@@ -2521,7 +2520,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="3"/>
         <v>40878</v>
@@ -2546,7 +2545,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>67</v>
       </c>
@@ -2564,7 +2563,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f>EDATE(A61,1)</f>
         <v>40909</v>
@@ -2585,7 +2584,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f>EDATE(A63,1)</f>
         <v>40940</v>
@@ -2606,7 +2605,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" ref="A65:A73" si="4">EDATE(A64,1)</f>
         <v>40969</v>
@@ -2627,7 +2626,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="4"/>
         <v>41000</v>
@@ -2648,7 +2647,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="4"/>
         <v>41030</v>
@@ -2669,7 +2668,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="4"/>
         <v>41061</v>
@@ -2690,7 +2689,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="4"/>
         <v>41091</v>
@@ -2711,7 +2710,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" si="4"/>
         <v>41122</v>
@@ -2732,7 +2731,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f t="shared" si="4"/>
         <v>41153</v>
@@ -2753,7 +2752,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="4"/>
         <v>41183</v>
@@ -2774,7 +2773,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="4"/>
         <v>41214</v>
@@ -2795,7 +2794,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f>EDATE(A73,1)</f>
         <v>41244</v>
@@ -2820,7 +2819,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>68</v>
       </c>
@@ -2838,7 +2837,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f>EDATE(A74,1)</f>
         <v>41275</v>
@@ -2859,7 +2858,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f>EDATE(A76,1)</f>
         <v>41306</v>
@@ -2880,7 +2879,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" ref="A78:A87" si="5">EDATE(A77,1)</f>
         <v>41334</v>
@@ -2901,7 +2900,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="5"/>
         <v>41365</v>
@@ -2922,7 +2921,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="5"/>
         <v>41395</v>
@@ -2943,7 +2942,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="5"/>
         <v>41426</v>
@@ -2964,7 +2963,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="5"/>
         <v>41456</v>
@@ -2985,7 +2984,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="5"/>
         <v>41487</v>
@@ -3006,7 +3005,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="5"/>
         <v>41518</v>
@@ -3027,7 +3026,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="5"/>
         <v>41548</v>
@@ -3048,7 +3047,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f>EDATE(A85,1)</f>
         <v>41579</v>
@@ -3069,7 +3068,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="5"/>
         <v>41609</v>
@@ -3094,7 +3093,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
         <v>69</v>
       </c>
@@ -3112,7 +3111,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>41640</v>
@@ -3133,7 +3132,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f>EDATE(A89,1)</f>
         <v>41671</v>
@@ -3154,7 +3153,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f t="shared" ref="A91:A100" si="6">EDATE(A90,1)</f>
         <v>41699</v>
@@ -3175,7 +3174,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f t="shared" si="6"/>
         <v>41730</v>
@@ -3196,7 +3195,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="6"/>
         <v>41760</v>
@@ -3217,7 +3216,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="6"/>
         <v>41791</v>
@@ -3238,7 +3237,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="6"/>
         <v>41821</v>
@@ -3259,7 +3258,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="6"/>
         <v>41852</v>
@@ -3280,7 +3279,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="6"/>
         <v>41883</v>
@@ -3301,7 +3300,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="6"/>
         <v>41913</v>
@@ -3322,7 +3321,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f t="shared" si="6"/>
         <v>41944</v>
@@ -3343,7 +3342,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f t="shared" si="6"/>
         <v>41974</v>
@@ -3368,7 +3367,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="47" t="s">
         <v>70</v>
       </c>
@@ -3386,7 +3385,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f>EDATE(A100,1)</f>
         <v>42005</v>
@@ -3407,7 +3406,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f>EDATE(A102,1)</f>
         <v>42036</v>
@@ -3428,7 +3427,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f t="shared" ref="A104:A112" si="7">EDATE(A103,1)</f>
         <v>42064</v>
@@ -3449,7 +3448,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f t="shared" si="7"/>
         <v>42095</v>
@@ -3470,7 +3469,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f t="shared" si="7"/>
         <v>42125</v>
@@ -3491,7 +3490,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="7"/>
         <v>42156</v>
@@ -3512,7 +3511,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f t="shared" si="7"/>
         <v>42186</v>
@@ -3533,7 +3532,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f t="shared" si="7"/>
         <v>42217</v>
@@ -3554,7 +3553,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="7"/>
         <v>42248</v>
@@ -3575,7 +3574,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f t="shared" si="7"/>
         <v>42278</v>
@@ -3596,7 +3595,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f t="shared" si="7"/>
         <v>42309</v>
@@ -3617,7 +3616,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f>EDATE(A112,1)</f>
         <v>42339</v>
@@ -3642,7 +3641,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>71</v>
       </c>
@@ -3660,7 +3659,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f>EDATE(A113,1)</f>
         <v>42370</v>
@@ -3681,7 +3680,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f>EDATE(A115,1)</f>
         <v>42401</v>
@@ -3702,7 +3701,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f t="shared" ref="A117:A125" si="8">EDATE(A116,1)</f>
         <v>42430</v>
@@ -3723,7 +3722,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f t="shared" si="8"/>
         <v>42461</v>
@@ -3744,7 +3743,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f t="shared" si="8"/>
         <v>42491</v>
@@ -3765,7 +3764,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f t="shared" si="8"/>
         <v>42522</v>
@@ -3786,7 +3785,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f t="shared" si="8"/>
         <v>42552</v>
@@ -3807,7 +3806,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f t="shared" si="8"/>
         <v>42583</v>
@@ -3828,7 +3827,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f t="shared" si="8"/>
         <v>42614</v>
@@ -3849,7 +3848,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f t="shared" si="8"/>
         <v>42644</v>
@@ -3870,7 +3869,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f t="shared" si="8"/>
         <v>42675</v>
@@ -3891,7 +3890,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f>EDATE(A125,1)</f>
         <v>42705</v>
@@ -3916,7 +3915,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>72</v>
       </c>
@@ -3934,7 +3933,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EDATE(A126,1)</f>
         <v>42736</v>
@@ -3955,7 +3954,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f>EDATE(A128,1)</f>
         <v>42767</v>
@@ -3976,7 +3975,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" ref="A130:A139" si="9">EDATE(A129,1)</f>
         <v>42795</v>
@@ -3997,7 +3996,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f t="shared" si="9"/>
         <v>42826</v>
@@ -4018,7 +4017,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f t="shared" si="9"/>
         <v>42856</v>
@@ -4039,7 +4038,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f t="shared" si="9"/>
         <v>42887</v>
@@ -4060,7 +4059,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f t="shared" si="9"/>
         <v>42917</v>
@@ -4081,7 +4080,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f t="shared" si="9"/>
         <v>42948</v>
@@ -4102,7 +4101,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f t="shared" si="9"/>
         <v>42979</v>
@@ -4123,7 +4122,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f t="shared" si="9"/>
         <v>43009</v>
@@ -4144,7 +4143,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f t="shared" si="9"/>
         <v>43040</v>
@@ -4165,7 +4164,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f t="shared" si="9"/>
         <v>43070</v>
@@ -4190,7 +4189,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>44</v>
       </c>
@@ -4212,7 +4211,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>43101</v>
       </c>
@@ -4232,7 +4231,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>43132</v>
       </c>
@@ -4252,7 +4251,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>43160</v>
       </c>
@@ -4272,7 +4271,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>43191</v>
       </c>
@@ -4292,7 +4291,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>43221</v>
       </c>
@@ -4312,7 +4311,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>43252</v>
       </c>
@@ -4332,7 +4331,7 @@
       <c r="J146" s="12"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>43282</v>
       </c>
@@ -4352,7 +4351,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>43313</v>
       </c>
@@ -4372,7 +4371,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>43344</v>
       </c>
@@ -4392,7 +4391,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>43374</v>
       </c>
@@ -4412,7 +4411,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>43405</v>
       </c>
@@ -4432,7 +4431,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>43435</v>
       </c>
@@ -4456,7 +4455,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>46</v>
       </c>
@@ -4474,7 +4473,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>43466</v>
       </c>
@@ -4494,7 +4493,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>43497</v>
       </c>
@@ -4514,7 +4513,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>43525</v>
       </c>
@@ -4534,7 +4533,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>43556</v>
       </c>
@@ -4554,7 +4553,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>43586</v>
       </c>
@@ -4574,7 +4573,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>43617</v>
       </c>
@@ -4594,7 +4593,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>43647</v>
       </c>
@@ -4614,7 +4613,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>43678</v>
       </c>
@@ -4634,7 +4633,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>43709</v>
       </c>
@@ -4654,7 +4653,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>43739</v>
       </c>
@@ -4674,7 +4673,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>43770</v>
       </c>
@@ -4694,7 +4693,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>43800</v>
       </c>
@@ -4718,7 +4717,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="47" t="s">
         <v>47</v>
       </c>
@@ -4736,7 +4735,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>43831</v>
       </c>
@@ -4756,7 +4755,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>43862</v>
       </c>
@@ -4776,7 +4775,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>43891</v>
       </c>
@@ -4796,7 +4795,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>43922</v>
       </c>
@@ -4816,7 +4815,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>43952</v>
       </c>
@@ -4836,7 +4835,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>43983</v>
       </c>
@@ -4856,7 +4855,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>44013</v>
       </c>
@@ -4876,7 +4875,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>44044</v>
       </c>
@@ -4896,7 +4895,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>44075</v>
       </c>
@@ -4916,7 +4915,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>44105</v>
       </c>
@@ -4936,7 +4935,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>44136</v>
       </c>
@@ -4956,7 +4955,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>44166</v>
       </c>
@@ -4980,7 +4979,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
         <v>48</v>
       </c>
@@ -4998,7 +4997,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>44197</v>
       </c>
@@ -5018,7 +5017,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>44228</v>
       </c>
@@ -5038,7 +5037,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>44256</v>
       </c>
@@ -5058,7 +5057,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>44287</v>
       </c>
@@ -5078,7 +5077,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>44317</v>
       </c>
@@ -5098,7 +5097,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>44348</v>
       </c>
@@ -5118,7 +5117,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>44378</v>
       </c>
@@ -5138,7 +5137,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>44409</v>
       </c>
@@ -5158,7 +5157,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>44440</v>
       </c>
@@ -5178,7 +5177,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>44470</v>
       </c>
@@ -5198,7 +5197,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>44501</v>
       </c>
@@ -5218,7 +5217,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>44531</v>
       </c>
@@ -5242,7 +5241,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="47" t="s">
         <v>49</v>
       </c>
@@ -5260,7 +5259,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>44562</v>
       </c>
@@ -5280,7 +5279,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>44593</v>
       </c>
@@ -5300,7 +5299,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>44621</v>
       </c>
@@ -5320,7 +5319,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>44652</v>
       </c>
@@ -5340,7 +5339,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>44682</v>
       </c>
@@ -5360,7 +5359,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>44713</v>
       </c>
@@ -5380,7 +5379,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>44743</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>44774</v>
       </c>
@@ -5426,7 +5425,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>44805</v>
       </c>
@@ -5452,7 +5451,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>44835</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>44866</v>
       </c>
@@ -5504,7 +5503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>58</v>
@@ -5526,7 +5525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>44896</v>
       </c>
@@ -5546,7 +5545,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="47" t="s">
         <v>60</v>
       </c>
@@ -5564,7 +5563,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>44927</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>44958</v>
       </c>
@@ -5610,7 +5609,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>44986</v>
       </c>
@@ -5630,7 +5629,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>45017</v>
       </c>
@@ -5650,151 +5649,171 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>45047</v>
       </c>
       <c r="B211" s="20"/>
-      <c r="C211" s="13"/>
+      <c r="C211" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D211" s="39"/>
       <c r="E211" s="9"/>
       <c r="F211" s="20"/>
-      <c r="G211" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G211" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H211" s="39"/>
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>45078</v>
       </c>
       <c r="B212" s="20"/>
-      <c r="C212" s="13"/>
+      <c r="C212" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D212" s="39"/>
       <c r="E212" s="9"/>
       <c r="F212" s="20"/>
-      <c r="G212" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G212" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H212" s="39"/>
       <c r="I212" s="9"/>
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>45108</v>
       </c>
       <c r="B213" s="20"/>
-      <c r="C213" s="13"/>
+      <c r="C213" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D213" s="39"/>
       <c r="E213" s="9"/>
       <c r="F213" s="20"/>
-      <c r="G213" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G213" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H213" s="39"/>
       <c r="I213" s="9"/>
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>45139</v>
       </c>
       <c r="B214" s="20"/>
-      <c r="C214" s="13"/>
+      <c r="C214" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D214" s="39"/>
       <c r="E214" s="9"/>
       <c r="F214" s="20"/>
-      <c r="G214" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G214" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H214" s="39"/>
       <c r="I214" s="9"/>
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>45170</v>
       </c>
       <c r="B215" s="20"/>
-      <c r="C215" s="13"/>
+      <c r="C215" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D215" s="39"/>
       <c r="E215" s="9"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G215" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H215" s="39"/>
       <c r="I215" s="9"/>
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>45200</v>
       </c>
       <c r="B216" s="20"/>
-      <c r="C216" s="13"/>
+      <c r="C216" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D216" s="39"/>
       <c r="E216" s="9"/>
       <c r="F216" s="20"/>
-      <c r="G216" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G216" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H216" s="39"/>
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>45231</v>
       </c>
       <c r="B217" s="20"/>
-      <c r="C217" s="13"/>
+      <c r="C217" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D217" s="39"/>
       <c r="E217" s="9"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G217" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H217" s="39"/>
       <c r="I217" s="9"/>
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>45261</v>
       </c>
-      <c r="B218" s="20"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="39"/>
+      <c r="B218" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C218" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D218" s="39">
+        <v>5</v>
+      </c>
       <c r="E218" s="9"/>
       <c r="F218" s="20"/>
-      <c r="G218" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G218" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H218" s="39"/>
       <c r="I218" s="9"/>
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>45292</v>
       </c>
@@ -5812,7 +5831,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>45323</v>
       </c>
@@ -5830,7 +5849,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>45352</v>
       </c>
@@ -5848,7 +5867,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>45383</v>
       </c>
@@ -5866,7 +5885,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>45413</v>
       </c>
@@ -5884,7 +5903,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>45444</v>
       </c>
@@ -5902,7 +5921,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>45474</v>
       </c>
@@ -5920,7 +5939,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>45505</v>
       </c>
@@ -5938,7 +5957,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>45536</v>
       </c>
@@ -5956,7 +5975,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>45566</v>
       </c>
@@ -5974,7 +5993,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>45597</v>
       </c>
@@ -5992,7 +6011,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>45627</v>
       </c>
@@ -6010,7 +6029,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>45658</v>
       </c>
@@ -6028,7 +6047,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>45689</v>
       </c>
@@ -6046,7 +6065,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>45717</v>
       </c>
@@ -6064,7 +6083,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>45748</v>
       </c>
@@ -6082,7 +6101,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>45778</v>
       </c>
@@ -6100,7 +6119,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>45809</v>
       </c>
@@ -6118,7 +6137,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>45839</v>
       </c>
@@ -6136,7 +6155,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>45870</v>
       </c>
@@ -6154,7 +6173,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>45901</v>
       </c>
@@ -6172,7 +6191,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>45931</v>
       </c>
@@ -6190,7 +6209,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>45962</v>
       </c>
@@ -6208,7 +6227,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>45992</v>
       </c>
@@ -6226,7 +6245,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>46023</v>
       </c>
@@ -6244,7 +6263,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>46054</v>
       </c>
@@ -6262,7 +6281,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>46082</v>
       </c>
@@ -6280,7 +6299,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>46113</v>
       </c>
@@ -6298,7 +6317,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>46143</v>
       </c>
@@ -6316,7 +6335,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>46174</v>
       </c>
@@ -6334,7 +6353,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>46204</v>
       </c>
@@ -6352,7 +6371,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>46235</v>
       </c>
@@ -6370,7 +6389,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>46266</v>
       </c>
@@ -6388,7 +6407,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>46296</v>
       </c>
@@ -6406,7 +6425,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>46327</v>
       </c>
@@ -6424,7 +6443,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>46357</v>
       </c>
@@ -6442,7 +6461,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>46388</v>
       </c>
@@ -6460,7 +6479,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>46419</v>
       </c>
@@ -6478,7 +6497,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>46447</v>
       </c>
@@ -6496,7 +6515,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>46478</v>
       </c>
@@ -6514,7 +6533,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>46508</v>
       </c>
@@ -6532,7 +6551,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>46539</v>
       </c>
@@ -6550,7 +6569,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>46569</v>
       </c>
@@ -6568,7 +6587,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>46600</v>
       </c>
@@ -6601,10 +6620,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6627,28 +6646,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -6661,7 +6680,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6690,7 +6709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -6710,17 +6729,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>73</v>
       </c>
@@ -6744,10 +6763,10 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>360.834</v>
+        <v>375.834</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -6775,7 +6794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6801,7 +6820,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6827,7 +6846,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6853,7 +6872,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6879,7 +6898,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6905,7 +6924,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6931,7 +6950,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6957,7 +6976,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6977,7 +6996,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6997,7 +7016,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7017,7 +7036,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7038,7 +7057,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7059,7 +7078,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7080,7 +7099,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7101,7 +7120,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7122,7 +7141,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7143,7 +7162,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7164,7 +7183,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7185,7 +7204,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7206,7 +7225,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7227,7 +7246,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7248,7 +7267,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7269,7 +7288,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7290,7 +7309,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7311,7 +7330,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7332,7 +7351,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7353,7 +7372,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7374,7 +7393,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7395,7 +7414,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7416,7 +7435,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7437,7 +7456,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7446,7 +7465,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7455,7 +7474,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7464,7 +7483,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7473,7 +7492,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7482,7 +7501,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7491,7 +7510,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7500,7 +7519,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7509,7 +7528,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7518,7 +7537,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7527,7 +7546,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7536,7 +7555,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7545,7 +7564,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7554,7 +7573,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7563,7 +7582,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7572,7 +7591,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7581,7 +7600,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7590,7 +7609,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7599,7 +7618,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7608,7 +7627,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7617,7 +7636,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7626,7 +7645,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7635,7 +7654,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7644,7 +7663,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7653,7 +7672,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7662,7 +7681,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7671,7 +7690,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7680,7 +7699,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7689,7 +7708,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7698,7 +7717,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/PAYAD, EDGARDO.xlsx
+++ b/REGULAR/OJT/PAYAD, EDGARDO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8AE648-33B4-43DF-BE40-D03B2596BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -129,9 +130,6 @@
   </si>
   <si>
     <t>BASED HOURS</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>LATE CALCULATOR</t>
@@ -256,18 +254,52 @@
   <si>
     <t>TOTAL LEAVE BALANCE</t>
   </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *********************NOTHING FOLLOWS***********************</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>SP/VMO</t>
+  </si>
+  <si>
+    <r>
+      <t>OPTIONAL RETIREMENT EFFECTIVE DATE: JANUARY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 31, 2024</t>
+    </r>
+  </si>
+  <si>
+    <t>TOTAL VL = 155.625</t>
+  </si>
+  <si>
+    <t>TOTAL SL = 222.625</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +334,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -590,9 +636,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,6 +708,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,7 +1002,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -943,25 +1019,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K262" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K225" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1268,93 +1344,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K262"/>
+  <dimension ref="A2:K225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" activePane="bottomLeft"/>
-      <selection activeCell="J4" sqref="J4:K4"/>
-      <selection pane="bottomLeft" activeCell="E219" sqref="E219"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2208" topLeftCell="A214" activePane="bottomLeft"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="H223" sqref="H223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="50"/>
+      <c r="B2" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="55">
+        <v>38169</v>
+      </c>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="50"/>
+      <c r="B4" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1362,7 +1444,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1375,24 +1457,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1436,7 +1518,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>154.417</v>
+        <v>155.625</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1446,5164 +1528,5750 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>221.417</v>
+        <v>222.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="48"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="47"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="39"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="13"/>
       <c r="F10" s="20"/>
       <c r="G10" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="13"/>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>39462</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="13">
         <v>0.66700000000000004</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="59">
+        <f>SUM(C11,E10)-D11</f>
+        <v>0.66700000000000004</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>0.66700000000000004</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="13"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="59">
+        <f>SUM(G11,I10)-H11</f>
+        <v>0.66700000000000004</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>39479</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="13">
         <v>1.25</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="59">
+        <f t="shared" ref="E12:E75" si="0">SUM(C12,E11)-D12</f>
+        <v>1.917</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="59">
+        <f t="shared" ref="I12:I75" si="1">SUM(G12,I11)-H12</f>
+        <v>1.917</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
-        <f>EDATE(A12,1)</f>
-        <v>39508</v>
-      </c>
-      <c r="B13" s="48"/>
+        <f>EOMONTH(A12,1)</f>
+        <v>39538</v>
+      </c>
+      <c r="B13" s="47"/>
       <c r="C13" s="13">
         <v>1.25</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="59">
+        <f t="shared" si="0"/>
+        <v>3.1669999999999998</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="59">
+        <f t="shared" si="1"/>
+        <v>3.1669999999999998</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
-        <f>EDATE(A13,1)</f>
-        <v>39539</v>
-      </c>
-      <c r="B14" s="48"/>
+        <f>EOMONTH(A13,1)</f>
+        <v>39568</v>
+      </c>
+      <c r="B14" s="47"/>
       <c r="C14" s="13">
         <v>1.25</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="59">
+        <f t="shared" si="0"/>
+        <v>4.4169999999999998</v>
+      </c>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="59">
+        <f t="shared" si="1"/>
+        <v>4.4169999999999998</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
-        <f t="shared" ref="A15:A22" si="0">EDATE(A14,1)</f>
-        <v>39569</v>
-      </c>
-      <c r="B15" s="48"/>
+        <f>EOMONTH(A14,1)</f>
+        <v>39599</v>
+      </c>
+      <c r="B15" s="47"/>
       <c r="C15" s="13">
         <v>1.25</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="59">
+        <f t="shared" si="0"/>
+        <v>5.6669999999999998</v>
+      </c>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="13"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="59">
+        <f t="shared" si="1"/>
+        <v>5.6669999999999998</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
+        <f>EOMONTH(A15,1)</f>
+        <v>39629</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="59">
         <f t="shared" si="0"/>
-        <v>39600</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="13"/>
+        <v>6.9169999999999998</v>
+      </c>
       <c r="F16" s="20"/>
       <c r="G16" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="13"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="59">
+        <f t="shared" si="1"/>
+        <v>6.9169999999999998</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
+        <f>EOMONTH(A16,1)</f>
+        <v>39660</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="59">
         <f t="shared" si="0"/>
-        <v>39630</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="13"/>
+        <v>8.1669999999999998</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="13"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="59">
+        <f t="shared" si="1"/>
+        <v>8.1669999999999998</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
+        <f>EOMONTH(A17,1)</f>
+        <v>39691</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="59">
         <f t="shared" si="0"/>
-        <v>39661</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="13"/>
+        <v>9.4169999999999998</v>
+      </c>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="13"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="59">
+        <f t="shared" si="1"/>
+        <v>9.4169999999999998</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
+        <f>EOMONTH(A18,1)</f>
+        <v>39721</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="59">
         <f t="shared" si="0"/>
-        <v>39692</v>
-      </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="13"/>
+        <v>10.667</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="13"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="59">
+        <f t="shared" si="1"/>
+        <v>10.667</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
+        <f>EOMONTH(A19,1)</f>
+        <v>39752</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="59">
         <f t="shared" si="0"/>
-        <v>39722</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="13"/>
+        <v>11.917</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="13"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="59">
+        <f t="shared" si="1"/>
+        <v>11.917</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
+        <f>EOMONTH(A20,1)</f>
+        <v>39782</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="59">
         <f t="shared" si="0"/>
-        <v>39753</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="13"/>
+        <v>13.167</v>
+      </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="13"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="59">
+        <f t="shared" si="1"/>
+        <v>13.167</v>
+      </c>
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
+        <f>EOMONTH(A21,1)</f>
+        <v>39813</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="38">
+        <v>5</v>
+      </c>
+      <c r="E22" s="59">
         <f t="shared" si="0"/>
-        <v>39783</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D22" s="39">
-        <v>5</v>
-      </c>
-      <c r="E22" s="13"/>
+        <v>9.4169999999999998</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="59">
+        <f t="shared" si="1"/>
+        <v>14.417</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
-        <v>64</v>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="s">
+        <v>63</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="59">
+        <f t="shared" si="0"/>
+        <v>9.4169999999999998</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="13"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="59">
+        <f t="shared" si="1"/>
+        <v>14.417</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
-        <f>EDATE(A22,1)</f>
-        <v>39814</v>
+        <f>EOMONTH(A22,1)</f>
+        <v>39844</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
         <v>1.25</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="59">
+        <f t="shared" si="0"/>
+        <v>10.667</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="59">
+        <f t="shared" si="1"/>
+        <v>15.667</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
-        <f>EDATE(A24,1)</f>
-        <v>39845</v>
+        <f>EOMONTH(A24,1)</f>
+        <v>39872</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
         <v>1.25</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="13"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="59">
+        <f t="shared" si="0"/>
+        <v>11.917</v>
+      </c>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="13"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="59">
+        <f t="shared" si="1"/>
+        <v>16.917000000000002</v>
+      </c>
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
-        <f t="shared" ref="A26:A34" si="1">EDATE(A25,1)</f>
-        <v>39873</v>
+        <f>EOMONTH(A25,1)</f>
+        <v>39903</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13">
         <v>1.25</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="13"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="59">
+        <f t="shared" si="0"/>
+        <v>13.167</v>
+      </c>
       <c r="F26" s="20"/>
       <c r="G26" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="13"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="59">
+        <f t="shared" si="1"/>
+        <v>18.167000000000002</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
-        <f t="shared" si="1"/>
-        <v>39904</v>
+        <f>EOMONTH(A26,1)</f>
+        <v>39933</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="13"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="59">
+        <f t="shared" si="0"/>
+        <v>14.417</v>
+      </c>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="13"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="59">
+        <f t="shared" si="1"/>
+        <v>19.417000000000002</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
-        <f t="shared" si="1"/>
-        <v>39934</v>
+        <f>EOMONTH(A27,1)</f>
+        <v>39964</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
         <v>1.25</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="13"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="59">
+        <f t="shared" si="0"/>
+        <v>15.667</v>
+      </c>
       <c r="F28" s="20"/>
       <c r="G28" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="13"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="59">
+        <f t="shared" si="1"/>
+        <v>20.667000000000002</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
-        <f t="shared" si="1"/>
-        <v>39965</v>
+        <f>EOMONTH(A28,1)</f>
+        <v>39994</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
         <v>1.25</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="13"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="59">
+        <f t="shared" si="0"/>
+        <v>16.917000000000002</v>
+      </c>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="13"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="59">
+        <f t="shared" si="1"/>
+        <v>21.917000000000002</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
-        <f t="shared" si="1"/>
-        <v>39995</v>
+        <f>EOMONTH(A29,1)</f>
+        <v>40025</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
         <v>1.25</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="13"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="59">
+        <f t="shared" si="0"/>
+        <v>18.167000000000002</v>
+      </c>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="13"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="59">
+        <f t="shared" si="1"/>
+        <v>23.167000000000002</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
-        <f t="shared" si="1"/>
-        <v>40026</v>
+        <f>EOMONTH(A30,1)</f>
+        <v>40056</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
         <v>1.25</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="13"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="59">
+        <f t="shared" si="0"/>
+        <v>19.417000000000002</v>
+      </c>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="13"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="59">
+        <f t="shared" si="1"/>
+        <v>24.417000000000002</v>
+      </c>
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
-        <f t="shared" si="1"/>
-        <v>40057</v>
+        <f>EOMONTH(A31,1)</f>
+        <v>40086</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="13"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="59">
+        <f t="shared" si="0"/>
+        <v>20.667000000000002</v>
+      </c>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="13"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="59">
+        <f t="shared" si="1"/>
+        <v>25.667000000000002</v>
+      </c>
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
-        <f t="shared" si="1"/>
-        <v>40087</v>
+        <f>EOMONTH(A32,1)</f>
+        <v>40117</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="13"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="59">
+        <f t="shared" si="0"/>
+        <v>21.917000000000002</v>
+      </c>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="13"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="59">
+        <f t="shared" si="1"/>
+        <v>26.917000000000002</v>
+      </c>
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
-        <f t="shared" si="1"/>
-        <v>40118</v>
+        <f>EOMONTH(A33,1)</f>
+        <v>40147</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
         <v>1.25</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="13"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="59">
+        <f t="shared" si="0"/>
+        <v>23.167000000000002</v>
+      </c>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="13"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="59">
+        <f t="shared" si="1"/>
+        <v>28.167000000000002</v>
+      </c>
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
-        <f>EDATE(A34,1)</f>
-        <v>40148</v>
+        <f>EOMONTH(A34,1)</f>
+        <v>40178</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="38">
         <v>5</v>
       </c>
-      <c r="E35" s="13"/>
+      <c r="E35" s="59">
+        <f t="shared" si="0"/>
+        <v>19.417000000000002</v>
+      </c>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="13"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="59">
+        <f t="shared" si="1"/>
+        <v>29.417000000000002</v>
+      </c>
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
-        <v>65</v>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="13"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="59">
+        <f t="shared" si="0"/>
+        <v>19.417000000000002</v>
+      </c>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H36" s="39"/>
-      <c r="I36" s="13"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="59">
+        <f t="shared" si="1"/>
+        <v>29.417000000000002</v>
+      </c>
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
-        <f>EDATE(A35,1)</f>
-        <v>40179</v>
+        <f>EOMONTH(A35,1)</f>
+        <v>40209</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
         <v>1.25</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="13"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="59">
+        <f t="shared" si="0"/>
+        <v>20.667000000000002</v>
+      </c>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="13"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="59">
+        <f t="shared" si="1"/>
+        <v>30.667000000000002</v>
+      </c>
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
-        <f>EDATE(A37,1)</f>
-        <v>40210</v>
+        <f>EOMONTH(A37,1)</f>
+        <v>40237</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
         <v>1.25</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="13"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="59">
+        <f t="shared" si="0"/>
+        <v>21.917000000000002</v>
+      </c>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="13"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="59">
+        <f t="shared" si="1"/>
+        <v>31.917000000000002</v>
+      </c>
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
-        <f t="shared" ref="A39:A47" si="2">EDATE(A38,1)</f>
-        <v>40238</v>
+        <f>EOMONTH(A38,1)</f>
+        <v>40268</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
         <v>1.25</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="13"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="59">
+        <f t="shared" si="0"/>
+        <v>23.167000000000002</v>
+      </c>
       <c r="F39" s="20"/>
       <c r="G39" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="13"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="59">
+        <f t="shared" si="1"/>
+        <v>33.167000000000002</v>
+      </c>
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
-        <f t="shared" si="2"/>
-        <v>40269</v>
+        <f>EOMONTH(A39,1)</f>
+        <v>40298</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="13"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="59">
+        <f t="shared" si="0"/>
+        <v>24.417000000000002</v>
+      </c>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="13"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="59">
+        <f t="shared" si="1"/>
+        <v>34.417000000000002</v>
+      </c>
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
-        <f t="shared" si="2"/>
-        <v>40299</v>
+        <f>EOMONTH(A40,1)</f>
+        <v>40329</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
         <v>1.25</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="13"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="59">
+        <f t="shared" si="0"/>
+        <v>25.667000000000002</v>
+      </c>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="13"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="59">
+        <f t="shared" si="1"/>
+        <v>35.667000000000002</v>
+      </c>
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
-        <f t="shared" si="2"/>
-        <v>40330</v>
+        <f>EOMONTH(A41,1)</f>
+        <v>40359</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
         <v>1.25</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="13"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="59">
+        <f t="shared" si="0"/>
+        <v>26.917000000000002</v>
+      </c>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H42" s="39"/>
-      <c r="I42" s="13"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="59">
+        <f t="shared" si="1"/>
+        <v>36.917000000000002</v>
+      </c>
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
-        <f t="shared" si="2"/>
-        <v>40360</v>
+        <f>EOMONTH(A42,1)</f>
+        <v>40390</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
         <v>1.25</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="13"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="59">
+        <f t="shared" si="0"/>
+        <v>28.167000000000002</v>
+      </c>
       <c r="F43" s="20"/>
       <c r="G43" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H43" s="39"/>
-      <c r="I43" s="13"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="59">
+        <f t="shared" si="1"/>
+        <v>38.167000000000002</v>
+      </c>
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
-        <f t="shared" si="2"/>
-        <v>40391</v>
+        <f>EOMONTH(A43,1)</f>
+        <v>40421</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="13"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="59">
+        <f t="shared" si="0"/>
+        <v>29.417000000000002</v>
+      </c>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H44" s="39"/>
-      <c r="I44" s="13"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="59">
+        <f t="shared" si="1"/>
+        <v>39.417000000000002</v>
+      </c>
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
-        <f t="shared" si="2"/>
-        <v>40422</v>
+        <f>EOMONTH(A44,1)</f>
+        <v>40451</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
         <v>1.25</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="13"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="59">
+        <f t="shared" si="0"/>
+        <v>30.667000000000002</v>
+      </c>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="13"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="59">
+        <f t="shared" si="1"/>
+        <v>40.667000000000002</v>
+      </c>
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
-        <f t="shared" si="2"/>
-        <v>40452</v>
+        <f>EOMONTH(A45,1)</f>
+        <v>40482</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="13"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="59">
+        <f t="shared" si="0"/>
+        <v>31.917000000000002</v>
+      </c>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H46" s="39"/>
-      <c r="I46" s="13"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="59">
+        <f t="shared" si="1"/>
+        <v>41.917000000000002</v>
+      </c>
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
-        <f t="shared" si="2"/>
-        <v>40483</v>
+        <f>EOMONTH(A46,1)</f>
+        <v>40512</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="13"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="59">
+        <f t="shared" si="0"/>
+        <v>33.167000000000002</v>
+      </c>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H47" s="39"/>
-      <c r="I47" s="13"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="59">
+        <f t="shared" si="1"/>
+        <v>43.167000000000002</v>
+      </c>
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
-        <f>EDATE(A47,1)</f>
-        <v>40513</v>
+        <f>EOMONTH(A47,1)</f>
+        <v>40543</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="39">
+      <c r="D48" s="38">
         <v>5</v>
       </c>
-      <c r="E48" s="13"/>
+      <c r="E48" s="59">
+        <f t="shared" si="0"/>
+        <v>29.417000000000002</v>
+      </c>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H48" s="39"/>
-      <c r="I48" s="13"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="59">
+        <f t="shared" si="1"/>
+        <v>44.417000000000002</v>
+      </c>
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
-        <v>66</v>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="13"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="59">
+        <f t="shared" si="0"/>
+        <v>29.417000000000002</v>
+      </c>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="39"/>
-      <c r="I49" s="13"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="59">
+        <f t="shared" si="1"/>
+        <v>44.417000000000002</v>
+      </c>
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
-        <f>EDATE(A48,1)</f>
-        <v>40544</v>
+        <f>EOMONTH(A48,1)</f>
+        <v>40574</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="13"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="59">
+        <f t="shared" si="0"/>
+        <v>30.667000000000002</v>
+      </c>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H50" s="39"/>
-      <c r="I50" s="13"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="59">
+        <f t="shared" si="1"/>
+        <v>45.667000000000002</v>
+      </c>
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <f>EDATE(A50,1)</f>
-        <v>40575</v>
+        <f>EOMONTH(A50,1)</f>
+        <v>40602</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
         <v>1.25</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="13"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="59">
+        <f t="shared" si="0"/>
+        <v>31.917000000000002</v>
+      </c>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H51" s="39"/>
-      <c r="I51" s="13"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="59">
+        <f t="shared" si="1"/>
+        <v>46.917000000000002</v>
+      </c>
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <f t="shared" ref="A52:A61" si="3">EDATE(A51,1)</f>
-        <v>40603</v>
+        <f>EOMONTH(A51,1)</f>
+        <v>40633</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="13"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="59">
+        <f t="shared" si="0"/>
+        <v>33.167000000000002</v>
+      </c>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H52" s="39"/>
-      <c r="I52" s="13"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="59">
+        <f t="shared" si="1"/>
+        <v>48.167000000000002</v>
+      </c>
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
-        <f t="shared" si="3"/>
-        <v>40634</v>
+        <f>EOMONTH(A52,1)</f>
+        <v>40663</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
         <v>1.25</v>
       </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="13"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="59">
+        <f t="shared" si="0"/>
+        <v>34.417000000000002</v>
+      </c>
       <c r="F53" s="20"/>
       <c r="G53" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H53" s="39"/>
-      <c r="I53" s="13"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="59">
+        <f t="shared" si="1"/>
+        <v>49.417000000000002</v>
+      </c>
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
-        <f t="shared" si="3"/>
-        <v>40664</v>
+        <f>EOMONTH(A53,1)</f>
+        <v>40694</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="13"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="59">
+        <f t="shared" si="0"/>
+        <v>35.667000000000002</v>
+      </c>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H54" s="39"/>
-      <c r="I54" s="13"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="59">
+        <f t="shared" si="1"/>
+        <v>50.667000000000002</v>
+      </c>
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
-        <f t="shared" si="3"/>
-        <v>40695</v>
+        <f>EOMONTH(A54,1)</f>
+        <v>40724</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
         <v>1.25</v>
       </c>
-      <c r="D55" s="39"/>
-      <c r="E55" s="13"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="59">
+        <f t="shared" si="0"/>
+        <v>36.917000000000002</v>
+      </c>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="13"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="59">
+        <f t="shared" si="1"/>
+        <v>51.917000000000002</v>
+      </c>
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
-        <f t="shared" si="3"/>
-        <v>40725</v>
+        <f>EOMONTH(A55,1)</f>
+        <v>40755</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
         <v>1.25</v>
       </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="13"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="59">
+        <f t="shared" si="0"/>
+        <v>38.167000000000002</v>
+      </c>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H56" s="39"/>
-      <c r="I56" s="13"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="59">
+        <f t="shared" si="1"/>
+        <v>53.167000000000002</v>
+      </c>
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
-        <f t="shared" si="3"/>
-        <v>40756</v>
+        <f>EOMONTH(A56,1)</f>
+        <v>40786</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
         <v>1.25</v>
       </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="13"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="59">
+        <f t="shared" si="0"/>
+        <v>39.417000000000002</v>
+      </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H57" s="39"/>
-      <c r="I57" s="13"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="59">
+        <f t="shared" si="1"/>
+        <v>54.417000000000002</v>
+      </c>
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
-        <f t="shared" si="3"/>
-        <v>40787</v>
+        <f>EOMONTH(A57,1)</f>
+        <v>40816</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
         <v>1.25</v>
       </c>
-      <c r="D58" s="39"/>
-      <c r="E58" s="13"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="59">
+        <f t="shared" si="0"/>
+        <v>40.667000000000002</v>
+      </c>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H58" s="39"/>
-      <c r="I58" s="13"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="59">
+        <f t="shared" si="1"/>
+        <v>55.667000000000002</v>
+      </c>
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
-        <f t="shared" si="3"/>
-        <v>40817</v>
+        <f>EOMONTH(A58,1)</f>
+        <v>40847</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
         <v>1.25</v>
       </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="13"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="59">
+        <f t="shared" si="0"/>
+        <v>41.917000000000002</v>
+      </c>
       <c r="F59" s="20"/>
       <c r="G59" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H59" s="39"/>
-      <c r="I59" s="13"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="59">
+        <f t="shared" si="1"/>
+        <v>56.917000000000002</v>
+      </c>
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
-        <f t="shared" si="3"/>
-        <v>40848</v>
+        <f>EOMONTH(A59,1)</f>
+        <v>40877</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
         <v>1.25</v>
       </c>
-      <c r="D60" s="39"/>
-      <c r="E60" s="13"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="59">
+        <f t="shared" si="0"/>
+        <v>43.167000000000002</v>
+      </c>
       <c r="F60" s="20"/>
       <c r="G60" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H60" s="39"/>
-      <c r="I60" s="13"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="59">
+        <f t="shared" si="1"/>
+        <v>58.167000000000002</v>
+      </c>
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
-        <f t="shared" si="3"/>
-        <v>40878</v>
+        <f>EOMONTH(A60,1)</f>
+        <v>40908</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="13">
         <v>1.25</v>
       </c>
-      <c r="D61" s="39">
+      <c r="D61" s="38">
         <v>5</v>
       </c>
-      <c r="E61" s="13"/>
+      <c r="E61" s="59">
+        <f t="shared" si="0"/>
+        <v>39.417000000000002</v>
+      </c>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H61" s="39"/>
-      <c r="I61" s="13"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="59">
+        <f t="shared" si="1"/>
+        <v>59.417000000000002</v>
+      </c>
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="47" t="s">
-        <v>67</v>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="13"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="59">
+        <f t="shared" si="0"/>
+        <v>39.417000000000002</v>
+      </c>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H62" s="39"/>
-      <c r="I62" s="13"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="59">
+        <f t="shared" si="1"/>
+        <v>59.417000000000002</v>
+      </c>
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
-        <f>EDATE(A61,1)</f>
-        <v>40909</v>
+        <f>EOMONTH(A61,1)</f>
+        <v>40939</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="13"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="59">
+        <f t="shared" si="0"/>
+        <v>40.667000000000002</v>
+      </c>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H63" s="39"/>
-      <c r="I63" s="13"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="59">
+        <f t="shared" si="1"/>
+        <v>60.667000000000002</v>
+      </c>
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
-        <f>EDATE(A63,1)</f>
-        <v>40940</v>
+        <f>EOMONTH(A63,1)</f>
+        <v>40968</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
         <v>1.25</v>
       </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="13"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="59">
+        <f t="shared" si="0"/>
+        <v>41.917000000000002</v>
+      </c>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H64" s="39"/>
-      <c r="I64" s="13"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="59">
+        <f t="shared" si="1"/>
+        <v>61.917000000000002</v>
+      </c>
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
-        <f t="shared" ref="A65:A73" si="4">EDATE(A64,1)</f>
-        <v>40969</v>
+        <f>EOMONTH(A64,1)</f>
+        <v>40999</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="13"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="59">
+        <f t="shared" si="0"/>
+        <v>43.167000000000002</v>
+      </c>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H65" s="39"/>
-      <c r="I65" s="13"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="59">
+        <f t="shared" si="1"/>
+        <v>63.167000000000002</v>
+      </c>
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
-        <f t="shared" si="4"/>
-        <v>41000</v>
+        <f>EOMONTH(A65,1)</f>
+        <v>41029</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="39"/>
-      <c r="E66" s="13"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="59">
+        <f t="shared" si="0"/>
+        <v>44.417000000000002</v>
+      </c>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H66" s="39"/>
-      <c r="I66" s="13"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="59">
+        <f t="shared" si="1"/>
+        <v>64.417000000000002</v>
+      </c>
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
-        <f t="shared" si="4"/>
-        <v>41030</v>
+        <f>EOMONTH(A66,1)</f>
+        <v>41060</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="13"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="59">
+        <f t="shared" si="0"/>
+        <v>45.667000000000002</v>
+      </c>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H67" s="39"/>
-      <c r="I67" s="13"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="59">
+        <f t="shared" si="1"/>
+        <v>65.667000000000002</v>
+      </c>
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
-        <f t="shared" si="4"/>
-        <v>41061</v>
+        <f>EOMONTH(A67,1)</f>
+        <v>41090</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="39"/>
-      <c r="E68" s="13"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="59">
+        <f t="shared" si="0"/>
+        <v>46.917000000000002</v>
+      </c>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H68" s="39"/>
-      <c r="I68" s="13"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="59">
+        <f t="shared" si="1"/>
+        <v>66.917000000000002</v>
+      </c>
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
-        <f t="shared" si="4"/>
-        <v>41091</v>
+        <f>EOMONTH(A68,1)</f>
+        <v>41121</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="39"/>
-      <c r="E69" s="13"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="59">
+        <f t="shared" si="0"/>
+        <v>48.167000000000002</v>
+      </c>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H69" s="39"/>
-      <c r="I69" s="13"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="59">
+        <f t="shared" si="1"/>
+        <v>68.167000000000002</v>
+      </c>
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
-        <f t="shared" si="4"/>
-        <v>41122</v>
+        <f>EOMONTH(A69,1)</f>
+        <v>41152</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39"/>
-      <c r="E70" s="13"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="59">
+        <f t="shared" si="0"/>
+        <v>49.417000000000002</v>
+      </c>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H70" s="39"/>
-      <c r="I70" s="13"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="59">
+        <f t="shared" si="1"/>
+        <v>69.417000000000002</v>
+      </c>
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
-        <f t="shared" si="4"/>
-        <v>41153</v>
+        <f>EOMONTH(A70,1)</f>
+        <v>41182</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39"/>
-      <c r="E71" s="13"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="59">
+        <f t="shared" si="0"/>
+        <v>50.667000000000002</v>
+      </c>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H71" s="39"/>
-      <c r="I71" s="13"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="59">
+        <f t="shared" si="1"/>
+        <v>70.667000000000002</v>
+      </c>
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
-        <f t="shared" si="4"/>
-        <v>41183</v>
+        <f>EOMONTH(A71,1)</f>
+        <v>41213</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39"/>
-      <c r="E72" s="13"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="59">
+        <f t="shared" si="0"/>
+        <v>51.917000000000002</v>
+      </c>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H72" s="39"/>
-      <c r="I72" s="13"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="59">
+        <f t="shared" si="1"/>
+        <v>71.917000000000002</v>
+      </c>
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
-        <f t="shared" si="4"/>
-        <v>41214</v>
+        <f>EOMONTH(A72,1)</f>
+        <v>41243</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
-      <c r="D73" s="39"/>
-      <c r="E73" s="13"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="59">
+        <f t="shared" si="0"/>
+        <v>53.167000000000002</v>
+      </c>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H73" s="39"/>
-      <c r="I73" s="13"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="59">
+        <f t="shared" si="1"/>
+        <v>73.167000000000002</v>
+      </c>
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
-        <f>EDATE(A73,1)</f>
-        <v>41244</v>
+        <f>EOMONTH(A73,1)</f>
+        <v>41274</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="39">
+      <c r="D74" s="38">
         <v>5</v>
       </c>
-      <c r="E74" s="13"/>
+      <c r="E74" s="59">
+        <f t="shared" si="0"/>
+        <v>49.417000000000002</v>
+      </c>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H74" s="39"/>
-      <c r="I74" s="13"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="59">
+        <f t="shared" si="1"/>
+        <v>74.417000000000002</v>
+      </c>
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="47" t="s">
-        <v>68</v>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="46" t="s">
+        <v>67</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="13"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="59">
+        <f t="shared" si="0"/>
+        <v>49.417000000000002</v>
+      </c>
       <c r="F75" s="20"/>
       <c r="G75" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H75" s="39"/>
-      <c r="I75" s="13"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="59">
+        <f t="shared" si="1"/>
+        <v>74.417000000000002</v>
+      </c>
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
-        <f>EDATE(A74,1)</f>
-        <v>41275</v>
+        <f>EOMONTH(A74,1)</f>
+        <v>41305</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
-      <c r="D76" s="39"/>
-      <c r="E76" s="13"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="59">
+        <f t="shared" ref="E76:E139" si="2">SUM(C76,E75)-D76</f>
+        <v>50.667000000000002</v>
+      </c>
       <c r="F76" s="20"/>
       <c r="G76" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H76" s="39"/>
-      <c r="I76" s="13"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="59">
+        <f t="shared" ref="I76:I139" si="3">SUM(G76,I75)-H76</f>
+        <v>75.667000000000002</v>
+      </c>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
-        <f>EDATE(A76,1)</f>
-        <v>41306</v>
+        <f>EOMONTH(A76,1)</f>
+        <v>41333</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
-      <c r="D77" s="39"/>
-      <c r="E77" s="13"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="59">
+        <f t="shared" si="2"/>
+        <v>51.917000000000002</v>
+      </c>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H77" s="39"/>
-      <c r="I77" s="13"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="59">
+        <f t="shared" si="3"/>
+        <v>76.917000000000002</v>
+      </c>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
-        <f t="shared" ref="A78:A87" si="5">EDATE(A77,1)</f>
-        <v>41334</v>
+        <f>EOMONTH(A77,1)</f>
+        <v>41364</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
-      <c r="D78" s="39"/>
-      <c r="E78" s="13"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="59">
+        <f t="shared" si="2"/>
+        <v>53.167000000000002</v>
+      </c>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H78" s="39"/>
-      <c r="I78" s="13"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="59">
+        <f t="shared" si="3"/>
+        <v>78.167000000000002</v>
+      </c>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
-        <f t="shared" si="5"/>
-        <v>41365</v>
+        <f>EOMONTH(A78,1)</f>
+        <v>41394</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
-      <c r="D79" s="39"/>
-      <c r="E79" s="13"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="59">
+        <f t="shared" si="2"/>
+        <v>54.417000000000002</v>
+      </c>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H79" s="39"/>
-      <c r="I79" s="13"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="59">
+        <f t="shared" si="3"/>
+        <v>79.417000000000002</v>
+      </c>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
-        <f t="shared" si="5"/>
-        <v>41395</v>
+        <f>EOMONTH(A79,1)</f>
+        <v>41425</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
-      <c r="D80" s="39"/>
-      <c r="E80" s="13"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="59">
+        <f t="shared" si="2"/>
+        <v>55.667000000000002</v>
+      </c>
       <c r="F80" s="20"/>
       <c r="G80" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H80" s="39"/>
-      <c r="I80" s="13"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="59">
+        <f t="shared" si="3"/>
+        <v>80.667000000000002</v>
+      </c>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
-        <f t="shared" si="5"/>
-        <v>41426</v>
+        <f>EOMONTH(A80,1)</f>
+        <v>41455</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
-      <c r="D81" s="39"/>
-      <c r="E81" s="13"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="59">
+        <f t="shared" si="2"/>
+        <v>56.917000000000002</v>
+      </c>
       <c r="F81" s="20"/>
       <c r="G81" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H81" s="39"/>
-      <c r="I81" s="13"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="59">
+        <f t="shared" si="3"/>
+        <v>81.917000000000002</v>
+      </c>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
-        <f t="shared" si="5"/>
-        <v>41456</v>
+        <f>EOMONTH(A81,1)</f>
+        <v>41486</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
-      <c r="D82" s="39"/>
-      <c r="E82" s="13"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="59">
+        <f t="shared" si="2"/>
+        <v>58.167000000000002</v>
+      </c>
       <c r="F82" s="20"/>
       <c r="G82" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H82" s="39"/>
-      <c r="I82" s="13"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="59">
+        <f t="shared" si="3"/>
+        <v>83.167000000000002</v>
+      </c>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
-        <f t="shared" si="5"/>
-        <v>41487</v>
+        <f>EOMONTH(A82,1)</f>
+        <v>41517</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
         <v>1.25</v>
       </c>
-      <c r="D83" s="39"/>
-      <c r="E83" s="13"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="59">
+        <f t="shared" si="2"/>
+        <v>59.417000000000002</v>
+      </c>
       <c r="F83" s="20"/>
       <c r="G83" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H83" s="39"/>
-      <c r="I83" s="13"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="59">
+        <f t="shared" si="3"/>
+        <v>84.417000000000002</v>
+      </c>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
-        <f t="shared" si="5"/>
-        <v>41518</v>
+        <f>EOMONTH(A83,1)</f>
+        <v>41547</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
         <v>1.25</v>
       </c>
-      <c r="D84" s="39"/>
-      <c r="E84" s="13"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="59">
+        <f t="shared" si="2"/>
+        <v>60.667000000000002</v>
+      </c>
       <c r="F84" s="20"/>
       <c r="G84" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H84" s="39"/>
-      <c r="I84" s="13"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="59">
+        <f t="shared" si="3"/>
+        <v>85.667000000000002</v>
+      </c>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
-        <f t="shared" si="5"/>
-        <v>41548</v>
+        <f>EOMONTH(A84,1)</f>
+        <v>41578</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
-      <c r="D85" s="39"/>
-      <c r="E85" s="13"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="59">
+        <f t="shared" si="2"/>
+        <v>61.917000000000002</v>
+      </c>
       <c r="F85" s="20"/>
       <c r="G85" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H85" s="39"/>
-      <c r="I85" s="13"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="59">
+        <f t="shared" si="3"/>
+        <v>86.917000000000002</v>
+      </c>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
-        <f>EDATE(A85,1)</f>
-        <v>41579</v>
+        <f>EOMONTH(A85,1)</f>
+        <v>41608</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
         <v>1.25</v>
       </c>
-      <c r="D86" s="39"/>
-      <c r="E86" s="13"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="59">
+        <f t="shared" si="2"/>
+        <v>63.167000000000002</v>
+      </c>
       <c r="F86" s="20"/>
       <c r="G86" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H86" s="39"/>
-      <c r="I86" s="13"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="59">
+        <f t="shared" si="3"/>
+        <v>88.167000000000002</v>
+      </c>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
-        <f t="shared" si="5"/>
-        <v>41609</v>
+        <f>EOMONTH(A86,1)</f>
+        <v>41639</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
-      <c r="D87" s="39">
+      <c r="D87" s="38">
         <v>5</v>
       </c>
-      <c r="E87" s="13"/>
+      <c r="E87" s="59">
+        <f t="shared" si="2"/>
+        <v>59.417000000000002</v>
+      </c>
       <c r="F87" s="20"/>
       <c r="G87" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H87" s="39"/>
-      <c r="I87" s="13"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="59">
+        <f t="shared" si="3"/>
+        <v>89.417000000000002</v>
+      </c>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="47" t="s">
-        <v>69</v>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="13"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="59">
+        <f t="shared" si="2"/>
+        <v>59.417000000000002</v>
+      </c>
       <c r="F88" s="20"/>
       <c r="G88" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H88" s="39"/>
-      <c r="I88" s="13"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="59">
+        <f t="shared" si="3"/>
+        <v>89.417000000000002</v>
+      </c>
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
-        <f>EDATE(A87,1)</f>
-        <v>41640</v>
+        <f>EOMONTH(A87,1)</f>
+        <v>41670</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13">
         <v>1.25</v>
       </c>
-      <c r="D89" s="39"/>
-      <c r="E89" s="13"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="59">
+        <f t="shared" si="2"/>
+        <v>60.667000000000002</v>
+      </c>
       <c r="F89" s="20"/>
       <c r="G89" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H89" s="39"/>
-      <c r="I89" s="13"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="59">
+        <f t="shared" si="3"/>
+        <v>90.667000000000002</v>
+      </c>
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
-        <f>EDATE(A89,1)</f>
-        <v>41671</v>
+        <f>EOMONTH(A89,1)</f>
+        <v>41698</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13">
         <v>1.25</v>
       </c>
-      <c r="D90" s="39"/>
-      <c r="E90" s="13"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="59">
+        <f t="shared" si="2"/>
+        <v>61.917000000000002</v>
+      </c>
       <c r="F90" s="20"/>
       <c r="G90" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H90" s="39"/>
-      <c r="I90" s="13"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="59">
+        <f t="shared" si="3"/>
+        <v>91.917000000000002</v>
+      </c>
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
-        <f t="shared" ref="A91:A100" si="6">EDATE(A90,1)</f>
-        <v>41699</v>
+        <f>EOMONTH(A90,1)</f>
+        <v>41729</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
-      <c r="D91" s="39"/>
-      <c r="E91" s="13"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="59">
+        <f t="shared" si="2"/>
+        <v>63.167000000000002</v>
+      </c>
       <c r="F91" s="20"/>
       <c r="G91" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H91" s="39"/>
-      <c r="I91" s="13"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="59">
+        <f t="shared" si="3"/>
+        <v>93.167000000000002</v>
+      </c>
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
-        <f t="shared" si="6"/>
-        <v>41730</v>
+        <f>EOMONTH(A91,1)</f>
+        <v>41759</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13">
         <v>1.25</v>
       </c>
-      <c r="D92" s="39"/>
-      <c r="E92" s="13"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="59">
+        <f t="shared" si="2"/>
+        <v>64.417000000000002</v>
+      </c>
       <c r="F92" s="20"/>
       <c r="G92" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H92" s="39"/>
-      <c r="I92" s="13"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="59">
+        <f t="shared" si="3"/>
+        <v>94.417000000000002</v>
+      </c>
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
-        <f t="shared" si="6"/>
-        <v>41760</v>
+        <f>EOMONTH(A92,1)</f>
+        <v>41790</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13">
         <v>1.25</v>
       </c>
-      <c r="D93" s="39"/>
-      <c r="E93" s="13"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="59">
+        <f t="shared" si="2"/>
+        <v>65.667000000000002</v>
+      </c>
       <c r="F93" s="20"/>
       <c r="G93" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H93" s="39"/>
-      <c r="I93" s="13"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="59">
+        <f t="shared" si="3"/>
+        <v>95.667000000000002</v>
+      </c>
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
-        <f t="shared" si="6"/>
-        <v>41791</v>
+        <f>EOMONTH(A93,1)</f>
+        <v>41820</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
         <v>1.25</v>
       </c>
-      <c r="D94" s="39"/>
-      <c r="E94" s="13"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="59">
+        <f t="shared" si="2"/>
+        <v>66.917000000000002</v>
+      </c>
       <c r="F94" s="20"/>
       <c r="G94" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H94" s="39"/>
-      <c r="I94" s="13"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="59">
+        <f t="shared" si="3"/>
+        <v>96.917000000000002</v>
+      </c>
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
-        <f t="shared" si="6"/>
-        <v>41821</v>
+        <f>EOMONTH(A94,1)</f>
+        <v>41851</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
-      <c r="D95" s="39"/>
-      <c r="E95" s="13"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="59">
+        <f t="shared" si="2"/>
+        <v>68.167000000000002</v>
+      </c>
       <c r="F95" s="20"/>
       <c r="G95" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H95" s="39"/>
-      <c r="I95" s="13"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="59">
+        <f t="shared" si="3"/>
+        <v>98.167000000000002</v>
+      </c>
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
-        <f t="shared" si="6"/>
-        <v>41852</v>
+        <f>EOMONTH(A95,1)</f>
+        <v>41882</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
         <v>1.25</v>
       </c>
-      <c r="D96" s="39"/>
-      <c r="E96" s="13"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="59">
+        <f t="shared" si="2"/>
+        <v>69.417000000000002</v>
+      </c>
       <c r="F96" s="20"/>
       <c r="G96" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H96" s="39"/>
-      <c r="I96" s="13"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="59">
+        <f t="shared" si="3"/>
+        <v>99.417000000000002</v>
+      </c>
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
-        <f t="shared" si="6"/>
-        <v>41883</v>
+        <f>EOMONTH(A96,1)</f>
+        <v>41912</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13">
         <v>1.25</v>
       </c>
-      <c r="D97" s="39"/>
-      <c r="E97" s="13"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="59">
+        <f t="shared" si="2"/>
+        <v>70.667000000000002</v>
+      </c>
       <c r="F97" s="20"/>
       <c r="G97" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H97" s="39"/>
-      <c r="I97" s="13"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="59">
+        <f t="shared" si="3"/>
+        <v>100.667</v>
+      </c>
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
-        <f t="shared" si="6"/>
-        <v>41913</v>
+        <f>EOMONTH(A97,1)</f>
+        <v>41943</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13">
         <v>1.25</v>
       </c>
-      <c r="D98" s="39"/>
-      <c r="E98" s="13"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="59">
+        <f t="shared" si="2"/>
+        <v>71.917000000000002</v>
+      </c>
       <c r="F98" s="20"/>
       <c r="G98" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H98" s="39"/>
-      <c r="I98" s="13"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="59">
+        <f t="shared" si="3"/>
+        <v>101.917</v>
+      </c>
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
-        <f t="shared" si="6"/>
-        <v>41944</v>
+        <f>EOMONTH(A98,1)</f>
+        <v>41973</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
         <v>1.25</v>
       </c>
-      <c r="D99" s="39"/>
-      <c r="E99" s="13"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="59">
+        <f t="shared" si="2"/>
+        <v>73.167000000000002</v>
+      </c>
       <c r="F99" s="20"/>
       <c r="G99" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H99" s="39"/>
-      <c r="I99" s="13"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="59">
+        <f t="shared" si="3"/>
+        <v>103.167</v>
+      </c>
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
-        <f t="shared" si="6"/>
-        <v>41974</v>
+        <f>EOMONTH(A99,1)</f>
+        <v>42004</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C100" s="13">
         <v>1.25</v>
       </c>
-      <c r="D100" s="39">
+      <c r="D100" s="38">
         <v>5</v>
       </c>
-      <c r="E100" s="13"/>
+      <c r="E100" s="59">
+        <f t="shared" si="2"/>
+        <v>69.417000000000002</v>
+      </c>
       <c r="F100" s="20"/>
       <c r="G100" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H100" s="39"/>
-      <c r="I100" s="13"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="59">
+        <f t="shared" si="3"/>
+        <v>104.417</v>
+      </c>
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="47" t="s">
-        <v>70</v>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="13"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="59">
+        <f t="shared" si="2"/>
+        <v>69.417000000000002</v>
+      </c>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H101" s="39"/>
-      <c r="I101" s="13"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="59">
+        <f t="shared" si="3"/>
+        <v>104.417</v>
+      </c>
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
-        <f>EDATE(A100,1)</f>
-        <v>42005</v>
+        <f>EOMONTH(A100,1)</f>
+        <v>42035</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13">
         <v>1.25</v>
       </c>
-      <c r="D102" s="39"/>
-      <c r="E102" s="13"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="59">
+        <f t="shared" si="2"/>
+        <v>70.667000000000002</v>
+      </c>
       <c r="F102" s="20"/>
       <c r="G102" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H102" s="39"/>
-      <c r="I102" s="13"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="59">
+        <f t="shared" si="3"/>
+        <v>105.667</v>
+      </c>
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
-        <f>EDATE(A102,1)</f>
-        <v>42036</v>
+        <f>EOMONTH(A102,1)</f>
+        <v>42063</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13">
         <v>1.25</v>
       </c>
-      <c r="D103" s="39"/>
-      <c r="E103" s="13"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="59">
+        <f t="shared" si="2"/>
+        <v>71.917000000000002</v>
+      </c>
       <c r="F103" s="20"/>
       <c r="G103" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H103" s="39"/>
-      <c r="I103" s="13"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="59">
+        <f t="shared" si="3"/>
+        <v>106.917</v>
+      </c>
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
-        <f t="shared" ref="A104:A112" si="7">EDATE(A103,1)</f>
-        <v>42064</v>
+        <f>EOMONTH(A103,1)</f>
+        <v>42094</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13">
         <v>1.25</v>
       </c>
-      <c r="D104" s="39"/>
-      <c r="E104" s="13"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="59">
+        <f t="shared" si="2"/>
+        <v>73.167000000000002</v>
+      </c>
       <c r="F104" s="20"/>
       <c r="G104" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H104" s="39"/>
-      <c r="I104" s="13"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="59">
+        <f t="shared" si="3"/>
+        <v>108.167</v>
+      </c>
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
-        <f t="shared" si="7"/>
-        <v>42095</v>
+        <f>EOMONTH(A104,1)</f>
+        <v>42124</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13">
         <v>1.25</v>
       </c>
-      <c r="D105" s="39"/>
-      <c r="E105" s="13"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="59">
+        <f t="shared" si="2"/>
+        <v>74.417000000000002</v>
+      </c>
       <c r="F105" s="20"/>
       <c r="G105" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H105" s="39"/>
-      <c r="I105" s="13"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="59">
+        <f t="shared" si="3"/>
+        <v>109.417</v>
+      </c>
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
-        <f t="shared" si="7"/>
-        <v>42125</v>
+        <f>EOMONTH(A105,1)</f>
+        <v>42155</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13">
         <v>1.25</v>
       </c>
-      <c r="D106" s="39"/>
-      <c r="E106" s="13"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="59">
+        <f t="shared" si="2"/>
+        <v>75.667000000000002</v>
+      </c>
       <c r="F106" s="20"/>
       <c r="G106" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H106" s="39"/>
-      <c r="I106" s="13"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="59">
+        <f t="shared" si="3"/>
+        <v>110.667</v>
+      </c>
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
-        <f t="shared" si="7"/>
-        <v>42156</v>
+        <f>EOMONTH(A106,1)</f>
+        <v>42185</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13">
         <v>1.25</v>
       </c>
-      <c r="D107" s="39"/>
-      <c r="E107" s="13"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="59">
+        <f t="shared" si="2"/>
+        <v>76.917000000000002</v>
+      </c>
       <c r="F107" s="20"/>
       <c r="G107" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H107" s="39"/>
-      <c r="I107" s="13"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="59">
+        <f t="shared" si="3"/>
+        <v>111.917</v>
+      </c>
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
-        <f t="shared" si="7"/>
-        <v>42186</v>
+        <f>EOMONTH(A107,1)</f>
+        <v>42216</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13">
         <v>1.25</v>
       </c>
-      <c r="D108" s="39"/>
-      <c r="E108" s="13"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="59">
+        <f t="shared" si="2"/>
+        <v>78.167000000000002</v>
+      </c>
       <c r="F108" s="20"/>
       <c r="G108" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H108" s="39"/>
-      <c r="I108" s="13"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="59">
+        <f t="shared" si="3"/>
+        <v>113.167</v>
+      </c>
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
-        <f t="shared" si="7"/>
-        <v>42217</v>
+        <f>EOMONTH(A108,1)</f>
+        <v>42247</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
         <v>1.25</v>
       </c>
-      <c r="D109" s="39"/>
-      <c r="E109" s="13"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="59">
+        <f t="shared" si="2"/>
+        <v>79.417000000000002</v>
+      </c>
       <c r="F109" s="20"/>
       <c r="G109" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H109" s="39"/>
-      <c r="I109" s="13"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="59">
+        <f t="shared" si="3"/>
+        <v>114.417</v>
+      </c>
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
-        <f t="shared" si="7"/>
-        <v>42248</v>
+        <f>EOMONTH(A109,1)</f>
+        <v>42277</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13">
         <v>1.25</v>
       </c>
-      <c r="D110" s="39"/>
-      <c r="E110" s="13"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="59">
+        <f t="shared" si="2"/>
+        <v>80.667000000000002</v>
+      </c>
       <c r="F110" s="20"/>
       <c r="G110" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H110" s="39"/>
-      <c r="I110" s="13"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="59">
+        <f t="shared" si="3"/>
+        <v>115.667</v>
+      </c>
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
-        <f t="shared" si="7"/>
-        <v>42278</v>
+        <f>EOMONTH(A110,1)</f>
+        <v>42308</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13">
         <v>1.25</v>
       </c>
-      <c r="D111" s="39"/>
-      <c r="E111" s="13"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="59">
+        <f t="shared" si="2"/>
+        <v>81.917000000000002</v>
+      </c>
       <c r="F111" s="20"/>
       <c r="G111" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H111" s="39"/>
-      <c r="I111" s="13"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="59">
+        <f t="shared" si="3"/>
+        <v>116.917</v>
+      </c>
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
-        <f t="shared" si="7"/>
-        <v>42309</v>
+        <f>EOMONTH(A111,1)</f>
+        <v>42338</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
         <v>1.25</v>
       </c>
-      <c r="D112" s="39"/>
-      <c r="E112" s="13"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="59">
+        <f t="shared" si="2"/>
+        <v>83.167000000000002</v>
+      </c>
       <c r="F112" s="20"/>
       <c r="G112" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H112" s="39"/>
-      <c r="I112" s="13"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="59">
+        <f t="shared" si="3"/>
+        <v>118.167</v>
+      </c>
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
-        <f>EDATE(A112,1)</f>
-        <v>42339</v>
+        <f>EOMONTH(A112,1)</f>
+        <v>42369</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
       </c>
-      <c r="D113" s="39">
+      <c r="D113" s="38">
         <v>5</v>
       </c>
-      <c r="E113" s="13"/>
+      <c r="E113" s="59">
+        <f t="shared" si="2"/>
+        <v>79.417000000000002</v>
+      </c>
       <c r="F113" s="20"/>
       <c r="G113" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H113" s="39"/>
-      <c r="I113" s="13"/>
+      <c r="H113" s="38"/>
+      <c r="I113" s="59">
+        <f t="shared" si="3"/>
+        <v>119.417</v>
+      </c>
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="47" t="s">
-        <v>71</v>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="13"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="59">
+        <f t="shared" si="2"/>
+        <v>79.417000000000002</v>
+      </c>
       <c r="F114" s="20"/>
       <c r="G114" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H114" s="39"/>
-      <c r="I114" s="13"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="59">
+        <f t="shared" si="3"/>
+        <v>119.417</v>
+      </c>
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
-        <f>EDATE(A113,1)</f>
-        <v>42370</v>
+        <f>EOMONTH(A113,1)</f>
+        <v>42400</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13">
         <v>1.25</v>
       </c>
-      <c r="D115" s="39"/>
-      <c r="E115" s="13"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="59">
+        <f t="shared" si="2"/>
+        <v>80.667000000000002</v>
+      </c>
       <c r="F115" s="20"/>
       <c r="G115" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H115" s="39"/>
-      <c r="I115" s="13"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="59">
+        <f t="shared" si="3"/>
+        <v>120.667</v>
+      </c>
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
-        <f>EDATE(A115,1)</f>
-        <v>42401</v>
+        <f>EOMONTH(A115,1)</f>
+        <v>42429</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13">
         <v>1.25</v>
       </c>
-      <c r="D116" s="39"/>
-      <c r="E116" s="13"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="59">
+        <f t="shared" si="2"/>
+        <v>81.917000000000002</v>
+      </c>
       <c r="F116" s="20"/>
       <c r="G116" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H116" s="39"/>
-      <c r="I116" s="13"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="59">
+        <f t="shared" si="3"/>
+        <v>121.917</v>
+      </c>
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
-        <f t="shared" ref="A117:A125" si="8">EDATE(A116,1)</f>
-        <v>42430</v>
+        <f>EOMONTH(A116,1)</f>
+        <v>42460</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13">
         <v>1.25</v>
       </c>
-      <c r="D117" s="39"/>
-      <c r="E117" s="13"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="59">
+        <f t="shared" si="2"/>
+        <v>83.167000000000002</v>
+      </c>
       <c r="F117" s="20"/>
       <c r="G117" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H117" s="39"/>
-      <c r="I117" s="13"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="59">
+        <f t="shared" si="3"/>
+        <v>123.167</v>
+      </c>
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
-        <f t="shared" si="8"/>
-        <v>42461</v>
+        <f>EOMONTH(A117,1)</f>
+        <v>42490</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
         <v>1.25</v>
       </c>
-      <c r="D118" s="39"/>
-      <c r="E118" s="13"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="59">
+        <f t="shared" si="2"/>
+        <v>84.417000000000002</v>
+      </c>
       <c r="F118" s="20"/>
       <c r="G118" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H118" s="39"/>
-      <c r="I118" s="13"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="59">
+        <f t="shared" si="3"/>
+        <v>124.417</v>
+      </c>
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
-        <f t="shared" si="8"/>
-        <v>42491</v>
+        <f>EOMONTH(A118,1)</f>
+        <v>42521</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13">
         <v>1.25</v>
       </c>
-      <c r="D119" s="39"/>
-      <c r="E119" s="13"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="59">
+        <f t="shared" si="2"/>
+        <v>85.667000000000002</v>
+      </c>
       <c r="F119" s="20"/>
       <c r="G119" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H119" s="39"/>
-      <c r="I119" s="13"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="59">
+        <f t="shared" si="3"/>
+        <v>125.667</v>
+      </c>
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
-        <f t="shared" si="8"/>
-        <v>42522</v>
+        <f>EOMONTH(A119,1)</f>
+        <v>42551</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
         <v>1.25</v>
       </c>
-      <c r="D120" s="39"/>
-      <c r="E120" s="13"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="59">
+        <f t="shared" si="2"/>
+        <v>86.917000000000002</v>
+      </c>
       <c r="F120" s="20"/>
       <c r="G120" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H120" s="39"/>
-      <c r="I120" s="13"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="59">
+        <f t="shared" si="3"/>
+        <v>126.917</v>
+      </c>
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
-        <f t="shared" si="8"/>
-        <v>42552</v>
+        <f>EOMONTH(A120,1)</f>
+        <v>42582</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13">
         <v>1.25</v>
       </c>
-      <c r="D121" s="39"/>
-      <c r="E121" s="13"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="59">
+        <f t="shared" si="2"/>
+        <v>88.167000000000002</v>
+      </c>
       <c r="F121" s="20"/>
       <c r="G121" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H121" s="39"/>
-      <c r="I121" s="13"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="59">
+        <f t="shared" si="3"/>
+        <v>128.167</v>
+      </c>
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
-        <f t="shared" si="8"/>
-        <v>42583</v>
+        <f>EOMONTH(A121,1)</f>
+        <v>42613</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13">
         <v>1.25</v>
       </c>
-      <c r="D122" s="39"/>
-      <c r="E122" s="13"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="59">
+        <f t="shared" si="2"/>
+        <v>89.417000000000002</v>
+      </c>
       <c r="F122" s="20"/>
       <c r="G122" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H122" s="39"/>
-      <c r="I122" s="13"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="59">
+        <f t="shared" si="3"/>
+        <v>129.417</v>
+      </c>
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
-        <f t="shared" si="8"/>
-        <v>42614</v>
+        <f>EOMONTH(A122,1)</f>
+        <v>42643</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
         <v>1.25</v>
       </c>
-      <c r="D123" s="39"/>
-      <c r="E123" s="13"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="59">
+        <f t="shared" si="2"/>
+        <v>90.667000000000002</v>
+      </c>
       <c r="F123" s="20"/>
       <c r="G123" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H123" s="39"/>
-      <c r="I123" s="13"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="59">
+        <f t="shared" si="3"/>
+        <v>130.667</v>
+      </c>
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
-        <f t="shared" si="8"/>
-        <v>42644</v>
+        <f>EOMONTH(A123,1)</f>
+        <v>42674</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13">
         <v>1.25</v>
       </c>
-      <c r="D124" s="39"/>
-      <c r="E124" s="13"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="59">
+        <f t="shared" si="2"/>
+        <v>91.917000000000002</v>
+      </c>
       <c r="F124" s="20"/>
       <c r="G124" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H124" s="39"/>
-      <c r="I124" s="13"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="59">
+        <f t="shared" si="3"/>
+        <v>131.917</v>
+      </c>
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
-        <f t="shared" si="8"/>
-        <v>42675</v>
+        <f>EOMONTH(A124,1)</f>
+        <v>42704</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
         <v>1.25</v>
       </c>
-      <c r="D125" s="39"/>
-      <c r="E125" s="13"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="59">
+        <f t="shared" si="2"/>
+        <v>93.167000000000002</v>
+      </c>
       <c r="F125" s="20"/>
       <c r="G125" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H125" s="39"/>
-      <c r="I125" s="13"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="59">
+        <f t="shared" si="3"/>
+        <v>133.167</v>
+      </c>
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
-        <f>EDATE(A125,1)</f>
-        <v>42705</v>
+        <f>EOMONTH(A125,1)</f>
+        <v>42735</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C126" s="13">
         <v>1.25</v>
       </c>
-      <c r="D126" s="39">
+      <c r="D126" s="38">
         <v>5</v>
       </c>
-      <c r="E126" s="13"/>
+      <c r="E126" s="59">
+        <f t="shared" si="2"/>
+        <v>89.417000000000002</v>
+      </c>
       <c r="F126" s="20"/>
       <c r="G126" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H126" s="39"/>
-      <c r="I126" s="13"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="59">
+        <f t="shared" si="3"/>
+        <v>134.417</v>
+      </c>
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="47" t="s">
-        <v>72</v>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="13"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="59">
+        <f t="shared" si="2"/>
+        <v>89.417000000000002</v>
+      </c>
       <c r="F127" s="20"/>
       <c r="G127" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H127" s="39"/>
-      <c r="I127" s="13"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="59">
+        <f t="shared" si="3"/>
+        <v>134.417</v>
+      </c>
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
-        <f>EDATE(A126,1)</f>
-        <v>42736</v>
+        <f>EOMONTH(A126,1)</f>
+        <v>42766</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
         <v>1.25</v>
       </c>
-      <c r="D128" s="39"/>
-      <c r="E128" s="13"/>
+      <c r="D128" s="38"/>
+      <c r="E128" s="59">
+        <f t="shared" si="2"/>
+        <v>90.667000000000002</v>
+      </c>
       <c r="F128" s="20"/>
       <c r="G128" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H128" s="39"/>
-      <c r="I128" s="13"/>
+      <c r="H128" s="38"/>
+      <c r="I128" s="59">
+        <f t="shared" si="3"/>
+        <v>135.667</v>
+      </c>
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
-        <f>EDATE(A128,1)</f>
-        <v>42767</v>
+        <f>EOMONTH(A128,1)</f>
+        <v>42794</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13">
         <v>1.25</v>
       </c>
-      <c r="D129" s="39"/>
-      <c r="E129" s="13"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="59">
+        <f t="shared" si="2"/>
+        <v>91.917000000000002</v>
+      </c>
       <c r="F129" s="20"/>
       <c r="G129" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="13"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="59">
+        <f t="shared" si="3"/>
+        <v>136.917</v>
+      </c>
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
-        <f t="shared" ref="A130:A139" si="9">EDATE(A129,1)</f>
-        <v>42795</v>
+        <f>EOMONTH(A129,1)</f>
+        <v>42825</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
         <v>1.25</v>
       </c>
-      <c r="D130" s="39"/>
-      <c r="E130" s="13"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="59">
+        <f t="shared" si="2"/>
+        <v>93.167000000000002</v>
+      </c>
       <c r="F130" s="20"/>
       <c r="G130" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H130" s="39"/>
-      <c r="I130" s="13"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="59">
+        <f t="shared" si="3"/>
+        <v>138.167</v>
+      </c>
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
-        <f t="shared" si="9"/>
-        <v>42826</v>
+        <f>EOMONTH(A130,1)</f>
+        <v>42855</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13">
         <v>1.25</v>
       </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="13"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="59">
+        <f t="shared" si="2"/>
+        <v>94.417000000000002</v>
+      </c>
       <c r="F131" s="20"/>
       <c r="G131" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H131" s="39"/>
-      <c r="I131" s="13"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="59">
+        <f t="shared" si="3"/>
+        <v>139.417</v>
+      </c>
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
-        <f t="shared" si="9"/>
-        <v>42856</v>
+        <f>EOMONTH(A131,1)</f>
+        <v>42886</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13">
         <v>1.25</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="13"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="59">
+        <f t="shared" si="2"/>
+        <v>95.667000000000002</v>
+      </c>
       <c r="F132" s="20"/>
       <c r="G132" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H132" s="39"/>
-      <c r="I132" s="13"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="59">
+        <f t="shared" si="3"/>
+        <v>140.667</v>
+      </c>
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
-        <f t="shared" si="9"/>
-        <v>42887</v>
+        <f>EOMONTH(A132,1)</f>
+        <v>42916</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
         <v>1.25</v>
       </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="13"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="59">
+        <f t="shared" si="2"/>
+        <v>96.917000000000002</v>
+      </c>
       <c r="F133" s="20"/>
       <c r="G133" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H133" s="39"/>
-      <c r="I133" s="13"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="59">
+        <f t="shared" si="3"/>
+        <v>141.917</v>
+      </c>
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
-        <f t="shared" si="9"/>
-        <v>42917</v>
+        <f>EOMONTH(A133,1)</f>
+        <v>42947</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13">
         <v>1.25</v>
       </c>
-      <c r="D134" s="39"/>
-      <c r="E134" s="13"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="59">
+        <f t="shared" si="2"/>
+        <v>98.167000000000002</v>
+      </c>
       <c r="F134" s="20"/>
       <c r="G134" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H134" s="39"/>
-      <c r="I134" s="13"/>
+      <c r="H134" s="38"/>
+      <c r="I134" s="59">
+        <f t="shared" si="3"/>
+        <v>143.167</v>
+      </c>
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
-        <f t="shared" si="9"/>
-        <v>42948</v>
+        <f>EOMONTH(A134,1)</f>
+        <v>42978</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
         <v>1.25</v>
       </c>
-      <c r="D135" s="39"/>
-      <c r="E135" s="13"/>
+      <c r="D135" s="38"/>
+      <c r="E135" s="59">
+        <f t="shared" si="2"/>
+        <v>99.417000000000002</v>
+      </c>
       <c r="F135" s="20"/>
       <c r="G135" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H135" s="39"/>
-      <c r="I135" s="13"/>
+      <c r="H135" s="38"/>
+      <c r="I135" s="59">
+        <f t="shared" si="3"/>
+        <v>144.417</v>
+      </c>
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
-        <f t="shared" si="9"/>
-        <v>42979</v>
+        <f>EOMONTH(A135,1)</f>
+        <v>43008</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13">
         <v>1.25</v>
       </c>
-      <c r="D136" s="39"/>
-      <c r="E136" s="13"/>
+      <c r="D136" s="38"/>
+      <c r="E136" s="59">
+        <f t="shared" si="2"/>
+        <v>100.667</v>
+      </c>
       <c r="F136" s="20"/>
       <c r="G136" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H136" s="39"/>
-      <c r="I136" s="13"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="59">
+        <f t="shared" si="3"/>
+        <v>145.667</v>
+      </c>
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
-        <f t="shared" si="9"/>
-        <v>43009</v>
+        <f>EOMONTH(A136,1)</f>
+        <v>43039</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13">
         <v>1.25</v>
       </c>
-      <c r="D137" s="39"/>
-      <c r="E137" s="13"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="59">
+        <f t="shared" si="2"/>
+        <v>101.917</v>
+      </c>
       <c r="F137" s="20"/>
       <c r="G137" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H137" s="39"/>
-      <c r="I137" s="13"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="59">
+        <f t="shared" si="3"/>
+        <v>146.917</v>
+      </c>
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
-        <f t="shared" si="9"/>
-        <v>43040</v>
+        <f>EOMONTH(A137,1)</f>
+        <v>43069</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13">
         <v>1.25</v>
       </c>
-      <c r="D138" s="39"/>
-      <c r="E138" s="13"/>
+      <c r="D138" s="38"/>
+      <c r="E138" s="59">
+        <f t="shared" si="2"/>
+        <v>103.167</v>
+      </c>
       <c r="F138" s="20"/>
       <c r="G138" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H138" s="39"/>
-      <c r="I138" s="13"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="59">
+        <f t="shared" si="3"/>
+        <v>148.167</v>
+      </c>
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
-        <f t="shared" si="9"/>
-        <v>43070</v>
+        <f>EOMONTH(A138,1)</f>
+        <v>43100</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C139" s="13">
         <v>1.25</v>
       </c>
-      <c r="D139" s="39">
+      <c r="D139" s="38">
         <v>5</v>
       </c>
-      <c r="E139" s="13"/>
+      <c r="E139" s="59">
+        <f t="shared" si="2"/>
+        <v>99.417000000000002</v>
+      </c>
       <c r="F139" s="20"/>
       <c r="G139" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H139" s="39"/>
-      <c r="I139" s="13"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="59">
+        <f t="shared" si="3"/>
+        <v>149.417</v>
+      </c>
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="47" t="s">
-        <v>44</v>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="46" t="s">
+        <v>43</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="34" t="s">
-        <v>32</v>
+      <c r="D140" s="38"/>
+      <c r="E140" s="59">
+        <f t="shared" ref="E140:E203" si="4">SUM(C140,E139)-D140</f>
+        <v>99.417000000000002</v>
       </c>
       <c r="F140" s="20"/>
       <c r="G140" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H140" s="39"/>
-      <c r="I140" s="34" t="s">
-        <v>32</v>
+      <c r="H140" s="38"/>
+      <c r="I140" s="59">
+        <f t="shared" ref="I140:I203" si="5">SUM(G140,I139)-H140</f>
+        <v>149.417</v>
       </c>
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="40">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="39">
         <v>43101</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
         <v>1.25</v>
       </c>
-      <c r="D141" s="39"/>
-      <c r="E141" s="9"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="59">
+        <f t="shared" si="4"/>
+        <v>100.667</v>
+      </c>
       <c r="F141" s="20"/>
       <c r="G141" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H141" s="39"/>
-      <c r="I141" s="9"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="59">
+        <f t="shared" si="5"/>
+        <v>150.667</v>
+      </c>
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="40">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="39">
         <v>43132</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13">
         <v>1.25</v>
       </c>
-      <c r="D142" s="39"/>
-      <c r="E142" s="9"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="59">
+        <f t="shared" si="4"/>
+        <v>101.917</v>
+      </c>
       <c r="F142" s="20"/>
       <c r="G142" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H142" s="39"/>
-      <c r="I142" s="9"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="59">
+        <f t="shared" si="5"/>
+        <v>151.917</v>
+      </c>
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="40">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="39">
         <v>43160</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
         <v>1.25</v>
       </c>
-      <c r="D143" s="39"/>
-      <c r="E143" s="9"/>
+      <c r="D143" s="38"/>
+      <c r="E143" s="59">
+        <f t="shared" si="4"/>
+        <v>103.167</v>
+      </c>
       <c r="F143" s="20"/>
       <c r="G143" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H143" s="39"/>
-      <c r="I143" s="9"/>
+      <c r="H143" s="38"/>
+      <c r="I143" s="59">
+        <f t="shared" si="5"/>
+        <v>153.167</v>
+      </c>
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="40">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="39">
         <v>43191</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13">
         <v>1.25</v>
       </c>
-      <c r="D144" s="39"/>
-      <c r="E144" s="9"/>
+      <c r="D144" s="38"/>
+      <c r="E144" s="59">
+        <f t="shared" si="4"/>
+        <v>104.417</v>
+      </c>
       <c r="F144" s="20"/>
       <c r="G144" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H144" s="39"/>
-      <c r="I144" s="9"/>
+      <c r="H144" s="38"/>
+      <c r="I144" s="59">
+        <f t="shared" si="5"/>
+        <v>154.417</v>
+      </c>
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="40">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="39">
         <v>43221</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
         <v>1.25</v>
       </c>
-      <c r="D145" s="39"/>
-      <c r="E145" s="9"/>
+      <c r="D145" s="38"/>
+      <c r="E145" s="59">
+        <f t="shared" si="4"/>
+        <v>105.667</v>
+      </c>
       <c r="F145" s="20"/>
       <c r="G145" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H145" s="39"/>
-      <c r="I145" s="9"/>
+      <c r="H145" s="38"/>
+      <c r="I145" s="59">
+        <f t="shared" si="5"/>
+        <v>155.667</v>
+      </c>
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="40">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="39">
         <v>43252</v>
       </c>
       <c r="B146" s="15"/>
       <c r="C146" s="13">
         <v>1.25</v>
       </c>
-      <c r="D146" s="42"/>
-      <c r="E146" s="9"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="59">
+        <f t="shared" si="4"/>
+        <v>106.917</v>
+      </c>
       <c r="F146" s="15"/>
-      <c r="G146" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H146" s="42"/>
-      <c r="I146" s="9"/>
+      <c r="G146" s="40">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H146" s="41"/>
+      <c r="I146" s="59">
+        <f t="shared" si="5"/>
+        <v>156.917</v>
+      </c>
       <c r="J146" s="12"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="40">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="39">
         <v>43282</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
         <v>1.25</v>
       </c>
-      <c r="D147" s="39"/>
-      <c r="E147" s="9"/>
+      <c r="D147" s="38"/>
+      <c r="E147" s="59">
+        <f t="shared" si="4"/>
+        <v>108.167</v>
+      </c>
       <c r="F147" s="20"/>
       <c r="G147" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H147" s="39"/>
-      <c r="I147" s="9"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="59">
+        <f t="shared" si="5"/>
+        <v>158.167</v>
+      </c>
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="40">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="39">
         <v>43313</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13">
         <v>1.25</v>
       </c>
-      <c r="D148" s="39"/>
-      <c r="E148" s="9"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="59">
+        <f t="shared" si="4"/>
+        <v>109.417</v>
+      </c>
       <c r="F148" s="20"/>
       <c r="G148" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H148" s="39"/>
-      <c r="I148" s="9"/>
+      <c r="H148" s="38"/>
+      <c r="I148" s="59">
+        <f t="shared" si="5"/>
+        <v>159.417</v>
+      </c>
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="40">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="39">
         <v>43344</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13">
         <v>1.25</v>
       </c>
-      <c r="D149" s="39"/>
-      <c r="E149" s="9"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="59">
+        <f t="shared" si="4"/>
+        <v>110.667</v>
+      </c>
       <c r="F149" s="20"/>
       <c r="G149" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H149" s="39"/>
-      <c r="I149" s="9"/>
+      <c r="H149" s="38"/>
+      <c r="I149" s="59">
+        <f t="shared" si="5"/>
+        <v>160.667</v>
+      </c>
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="40">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="39">
         <v>43374</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13">
         <v>1.25</v>
       </c>
-      <c r="D150" s="39"/>
-      <c r="E150" s="9"/>
+      <c r="D150" s="38"/>
+      <c r="E150" s="59">
+        <f t="shared" si="4"/>
+        <v>111.917</v>
+      </c>
       <c r="F150" s="20"/>
       <c r="G150" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H150" s="39"/>
-      <c r="I150" s="9"/>
+      <c r="H150" s="38"/>
+      <c r="I150" s="59">
+        <f t="shared" si="5"/>
+        <v>161.917</v>
+      </c>
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="40">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="39">
         <v>43405</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
         <v>1.25</v>
       </c>
-      <c r="D151" s="39"/>
-      <c r="E151" s="9"/>
+      <c r="D151" s="38"/>
+      <c r="E151" s="59">
+        <f t="shared" si="4"/>
+        <v>113.167</v>
+      </c>
       <c r="F151" s="20"/>
       <c r="G151" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H151" s="39"/>
-      <c r="I151" s="9"/>
+      <c r="H151" s="38"/>
+      <c r="I151" s="59">
+        <f t="shared" si="5"/>
+        <v>163.167</v>
+      </c>
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="40">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="39">
         <v>43435</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C152" s="13">
         <v>1.25</v>
       </c>
-      <c r="D152" s="39">
+      <c r="D152" s="38">
         <v>5</v>
       </c>
-      <c r="E152" s="9"/>
+      <c r="E152" s="59">
+        <f t="shared" si="4"/>
+        <v>109.417</v>
+      </c>
       <c r="F152" s="20"/>
       <c r="G152" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H152" s="39"/>
-      <c r="I152" s="9"/>
+      <c r="H152" s="38"/>
+      <c r="I152" s="59">
+        <f t="shared" si="5"/>
+        <v>164.417</v>
+      </c>
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="47" t="s">
-        <v>46</v>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="46" t="s">
+        <v>45</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="9"/>
+      <c r="D153" s="38"/>
+      <c r="E153" s="59">
+        <f t="shared" si="4"/>
+        <v>109.417</v>
+      </c>
       <c r="F153" s="20"/>
       <c r="G153" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H153" s="39"/>
-      <c r="I153" s="9"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="59">
+        <f t="shared" si="5"/>
+        <v>164.417</v>
+      </c>
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="40">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="39">
         <v>43466</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13">
         <v>1.25</v>
       </c>
-      <c r="D154" s="39"/>
-      <c r="E154" s="9"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="59">
+        <f t="shared" si="4"/>
+        <v>110.667</v>
+      </c>
       <c r="F154" s="20"/>
       <c r="G154" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H154" s="39"/>
-      <c r="I154" s="9"/>
+      <c r="H154" s="38"/>
+      <c r="I154" s="59">
+        <f t="shared" si="5"/>
+        <v>165.667</v>
+      </c>
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="40">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="39">
         <v>43497</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13">
         <v>1.25</v>
       </c>
-      <c r="D155" s="39"/>
-      <c r="E155" s="9"/>
+      <c r="D155" s="38"/>
+      <c r="E155" s="59">
+        <f t="shared" si="4"/>
+        <v>111.917</v>
+      </c>
       <c r="F155" s="20"/>
       <c r="G155" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H155" s="39"/>
-      <c r="I155" s="9"/>
+      <c r="H155" s="38"/>
+      <c r="I155" s="59">
+        <f t="shared" si="5"/>
+        <v>166.917</v>
+      </c>
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="40">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="39">
         <v>43525</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13">
         <v>1.25</v>
       </c>
-      <c r="D156" s="39"/>
-      <c r="E156" s="9"/>
+      <c r="D156" s="38"/>
+      <c r="E156" s="59">
+        <f t="shared" si="4"/>
+        <v>113.167</v>
+      </c>
       <c r="F156" s="20"/>
       <c r="G156" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H156" s="39"/>
-      <c r="I156" s="9"/>
+      <c r="H156" s="38"/>
+      <c r="I156" s="59">
+        <f t="shared" si="5"/>
+        <v>168.167</v>
+      </c>
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="40">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="39">
         <v>43556</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
         <v>1.25</v>
       </c>
-      <c r="D157" s="39"/>
-      <c r="E157" s="9"/>
+      <c r="D157" s="38"/>
+      <c r="E157" s="59">
+        <f t="shared" si="4"/>
+        <v>114.417</v>
+      </c>
       <c r="F157" s="20"/>
       <c r="G157" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H157" s="39"/>
-      <c r="I157" s="9"/>
+      <c r="H157" s="38"/>
+      <c r="I157" s="59">
+        <f t="shared" si="5"/>
+        <v>169.417</v>
+      </c>
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="40">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="39">
         <v>43586</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13">
         <v>1.25</v>
       </c>
-      <c r="D158" s="39"/>
-      <c r="E158" s="9"/>
+      <c r="D158" s="38"/>
+      <c r="E158" s="59">
+        <f t="shared" si="4"/>
+        <v>115.667</v>
+      </c>
       <c r="F158" s="20"/>
       <c r="G158" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H158" s="39"/>
-      <c r="I158" s="9"/>
+      <c r="H158" s="38"/>
+      <c r="I158" s="59">
+        <f t="shared" si="5"/>
+        <v>170.667</v>
+      </c>
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="40">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="39">
         <v>43617</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13">
         <v>1.25</v>
       </c>
-      <c r="D159" s="39"/>
-      <c r="E159" s="9"/>
+      <c r="D159" s="38"/>
+      <c r="E159" s="59">
+        <f t="shared" si="4"/>
+        <v>116.917</v>
+      </c>
       <c r="F159" s="20"/>
       <c r="G159" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H159" s="39"/>
-      <c r="I159" s="9"/>
+      <c r="H159" s="38"/>
+      <c r="I159" s="59">
+        <f t="shared" si="5"/>
+        <v>171.917</v>
+      </c>
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="40">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="39">
         <v>43647</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13">
         <v>1.25</v>
       </c>
-      <c r="D160" s="39"/>
-      <c r="E160" s="9"/>
+      <c r="D160" s="38"/>
+      <c r="E160" s="59">
+        <f t="shared" si="4"/>
+        <v>118.167</v>
+      </c>
       <c r="F160" s="20"/>
       <c r="G160" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H160" s="39"/>
-      <c r="I160" s="9"/>
+      <c r="H160" s="38"/>
+      <c r="I160" s="59">
+        <f t="shared" si="5"/>
+        <v>173.167</v>
+      </c>
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="40">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="39">
         <v>43678</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13">
         <v>1.25</v>
       </c>
-      <c r="D161" s="39"/>
-      <c r="E161" s="9"/>
+      <c r="D161" s="38"/>
+      <c r="E161" s="59">
+        <f t="shared" si="4"/>
+        <v>119.417</v>
+      </c>
       <c r="F161" s="20"/>
       <c r="G161" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H161" s="39"/>
-      <c r="I161" s="9"/>
+      <c r="H161" s="38"/>
+      <c r="I161" s="59">
+        <f t="shared" si="5"/>
+        <v>174.417</v>
+      </c>
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="40">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="39">
         <v>43709</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13">
         <v>1.25</v>
       </c>
-      <c r="D162" s="39"/>
-      <c r="E162" s="9"/>
+      <c r="D162" s="38"/>
+      <c r="E162" s="59">
+        <f t="shared" si="4"/>
+        <v>120.667</v>
+      </c>
       <c r="F162" s="20"/>
       <c r="G162" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H162" s="39"/>
-      <c r="I162" s="9"/>
+      <c r="H162" s="38"/>
+      <c r="I162" s="59">
+        <f t="shared" si="5"/>
+        <v>175.667</v>
+      </c>
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="40">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="39">
         <v>43739</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13">
         <v>1.25</v>
       </c>
-      <c r="D163" s="39"/>
-      <c r="E163" s="9"/>
+      <c r="D163" s="38"/>
+      <c r="E163" s="59">
+        <f t="shared" si="4"/>
+        <v>121.917</v>
+      </c>
       <c r="F163" s="20"/>
       <c r="G163" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H163" s="39"/>
-      <c r="I163" s="9"/>
+      <c r="H163" s="38"/>
+      <c r="I163" s="59">
+        <f t="shared" si="5"/>
+        <v>176.917</v>
+      </c>
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="40">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="39">
         <v>43770</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13">
         <v>1.25</v>
       </c>
-      <c r="D164" s="39"/>
-      <c r="E164" s="9"/>
+      <c r="D164" s="38"/>
+      <c r="E164" s="59">
+        <f t="shared" si="4"/>
+        <v>123.167</v>
+      </c>
       <c r="F164" s="20"/>
       <c r="G164" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H164" s="39"/>
-      <c r="I164" s="9"/>
+      <c r="H164" s="38"/>
+      <c r="I164" s="59">
+        <f t="shared" si="5"/>
+        <v>178.167</v>
+      </c>
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="40">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="39">
         <v>43800</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C165" s="13">
         <v>1.25</v>
       </c>
-      <c r="D165" s="39">
+      <c r="D165" s="38">
         <v>5</v>
       </c>
-      <c r="E165" s="9"/>
+      <c r="E165" s="59">
+        <f t="shared" si="4"/>
+        <v>119.417</v>
+      </c>
       <c r="F165" s="20"/>
       <c r="G165" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H165" s="39"/>
-      <c r="I165" s="9"/>
+      <c r="H165" s="38"/>
+      <c r="I165" s="59">
+        <f t="shared" si="5"/>
+        <v>179.417</v>
+      </c>
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="47" t="s">
-        <v>47</v>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="9"/>
+      <c r="D166" s="38"/>
+      <c r="E166" s="59">
+        <f t="shared" si="4"/>
+        <v>119.417</v>
+      </c>
       <c r="F166" s="20"/>
       <c r="G166" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H166" s="39"/>
-      <c r="I166" s="9"/>
+      <c r="H166" s="38"/>
+      <c r="I166" s="59">
+        <f t="shared" si="5"/>
+        <v>179.417</v>
+      </c>
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="40">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="39">
         <v>43831</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13">
         <v>1.25</v>
       </c>
-      <c r="D167" s="39"/>
-      <c r="E167" s="9"/>
+      <c r="D167" s="38"/>
+      <c r="E167" s="59">
+        <f t="shared" si="4"/>
+        <v>120.667</v>
+      </c>
       <c r="F167" s="20"/>
       <c r="G167" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H167" s="39"/>
-      <c r="I167" s="9"/>
+      <c r="H167" s="38"/>
+      <c r="I167" s="59">
+        <f t="shared" si="5"/>
+        <v>180.667</v>
+      </c>
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="40">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="39">
         <v>43862</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13">
         <v>1.25</v>
       </c>
-      <c r="D168" s="39"/>
-      <c r="E168" s="9"/>
+      <c r="D168" s="38"/>
+      <c r="E168" s="59">
+        <f t="shared" si="4"/>
+        <v>121.917</v>
+      </c>
       <c r="F168" s="20"/>
       <c r="G168" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H168" s="39"/>
-      <c r="I168" s="9"/>
+      <c r="H168" s="38"/>
+      <c r="I168" s="59">
+        <f t="shared" si="5"/>
+        <v>181.917</v>
+      </c>
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="40">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="39">
         <v>43891</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13">
         <v>1.25</v>
       </c>
-      <c r="D169" s="39"/>
-      <c r="E169" s="9"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="59">
+        <f t="shared" si="4"/>
+        <v>123.167</v>
+      </c>
       <c r="F169" s="20"/>
       <c r="G169" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H169" s="39"/>
-      <c r="I169" s="9"/>
+      <c r="H169" s="38"/>
+      <c r="I169" s="59">
+        <f t="shared" si="5"/>
+        <v>183.167</v>
+      </c>
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="40">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="39">
         <v>43922</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
         <v>1.25</v>
       </c>
-      <c r="D170" s="39"/>
-      <c r="E170" s="9"/>
+      <c r="D170" s="38"/>
+      <c r="E170" s="59">
+        <f t="shared" si="4"/>
+        <v>124.417</v>
+      </c>
       <c r="F170" s="20"/>
       <c r="G170" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H170" s="39"/>
-      <c r="I170" s="9"/>
+      <c r="H170" s="38"/>
+      <c r="I170" s="59">
+        <f t="shared" si="5"/>
+        <v>184.417</v>
+      </c>
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="40">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="39">
         <v>43952</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13">
         <v>1.25</v>
       </c>
-      <c r="D171" s="39"/>
-      <c r="E171" s="9"/>
+      <c r="D171" s="38"/>
+      <c r="E171" s="59">
+        <f t="shared" si="4"/>
+        <v>125.667</v>
+      </c>
       <c r="F171" s="20"/>
       <c r="G171" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H171" s="39"/>
-      <c r="I171" s="9"/>
+      <c r="H171" s="38"/>
+      <c r="I171" s="59">
+        <f t="shared" si="5"/>
+        <v>185.667</v>
+      </c>
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="40">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="39">
         <v>43983</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13">
         <v>1.25</v>
       </c>
-      <c r="D172" s="39"/>
-      <c r="E172" s="9"/>
+      <c r="D172" s="38"/>
+      <c r="E172" s="59">
+        <f t="shared" si="4"/>
+        <v>126.917</v>
+      </c>
       <c r="F172" s="20"/>
       <c r="G172" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H172" s="39"/>
-      <c r="I172" s="9"/>
+      <c r="H172" s="38"/>
+      <c r="I172" s="59">
+        <f t="shared" si="5"/>
+        <v>186.917</v>
+      </c>
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="40">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="39">
         <v>44013</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13">
         <v>1.25</v>
       </c>
-      <c r="D173" s="39"/>
-      <c r="E173" s="9"/>
+      <c r="D173" s="38"/>
+      <c r="E173" s="59">
+        <f t="shared" si="4"/>
+        <v>128.167</v>
+      </c>
       <c r="F173" s="20"/>
       <c r="G173" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H173" s="39"/>
-      <c r="I173" s="9"/>
+      <c r="H173" s="38"/>
+      <c r="I173" s="59">
+        <f t="shared" si="5"/>
+        <v>188.167</v>
+      </c>
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="40">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="39">
         <v>44044</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13">
         <v>1.25</v>
       </c>
-      <c r="D174" s="39"/>
-      <c r="E174" s="9"/>
+      <c r="D174" s="38"/>
+      <c r="E174" s="59">
+        <f t="shared" si="4"/>
+        <v>129.417</v>
+      </c>
       <c r="F174" s="20"/>
       <c r="G174" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H174" s="39"/>
-      <c r="I174" s="9"/>
+      <c r="H174" s="38"/>
+      <c r="I174" s="59">
+        <f t="shared" si="5"/>
+        <v>189.417</v>
+      </c>
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="40">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="39">
         <v>44075</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
         <v>1.25</v>
       </c>
-      <c r="D175" s="39"/>
-      <c r="E175" s="9"/>
+      <c r="D175" s="38"/>
+      <c r="E175" s="59">
+        <f t="shared" si="4"/>
+        <v>130.667</v>
+      </c>
       <c r="F175" s="20"/>
       <c r="G175" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H175" s="39"/>
-      <c r="I175" s="9"/>
+      <c r="H175" s="38"/>
+      <c r="I175" s="59">
+        <f t="shared" si="5"/>
+        <v>190.667</v>
+      </c>
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="40">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="39">
         <v>44105</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13">
         <v>1.25</v>
       </c>
-      <c r="D176" s="39"/>
-      <c r="E176" s="9"/>
+      <c r="D176" s="38"/>
+      <c r="E176" s="59">
+        <f t="shared" si="4"/>
+        <v>131.917</v>
+      </c>
       <c r="F176" s="20"/>
       <c r="G176" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H176" s="39"/>
-      <c r="I176" s="9"/>
+      <c r="H176" s="38"/>
+      <c r="I176" s="59">
+        <f t="shared" si="5"/>
+        <v>191.917</v>
+      </c>
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="40">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="39">
         <v>44136</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13">
         <v>1.25</v>
       </c>
-      <c r="D177" s="39"/>
-      <c r="E177" s="9"/>
+      <c r="D177" s="38"/>
+      <c r="E177" s="59">
+        <f t="shared" si="4"/>
+        <v>133.167</v>
+      </c>
       <c r="F177" s="20"/>
       <c r="G177" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H177" s="39"/>
-      <c r="I177" s="9"/>
+      <c r="H177" s="38"/>
+      <c r="I177" s="59">
+        <f t="shared" si="5"/>
+        <v>193.167</v>
+      </c>
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="40">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="39">
         <v>44166</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C178" s="13">
         <v>1.25</v>
       </c>
-      <c r="D178" s="39">
+      <c r="D178" s="38">
         <v>5</v>
       </c>
-      <c r="E178" s="9"/>
+      <c r="E178" s="59">
+        <f t="shared" si="4"/>
+        <v>129.417</v>
+      </c>
       <c r="F178" s="20"/>
       <c r="G178" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H178" s="39"/>
-      <c r="I178" s="9"/>
+      <c r="H178" s="38"/>
+      <c r="I178" s="59">
+        <f t="shared" si="5"/>
+        <v>194.417</v>
+      </c>
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="47" t="s">
-        <v>48</v>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="9"/>
+      <c r="D179" s="38"/>
+      <c r="E179" s="59">
+        <f t="shared" si="4"/>
+        <v>129.417</v>
+      </c>
       <c r="F179" s="20"/>
       <c r="G179" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H179" s="39"/>
-      <c r="I179" s="9"/>
+      <c r="H179" s="38"/>
+      <c r="I179" s="59">
+        <f t="shared" si="5"/>
+        <v>194.417</v>
+      </c>
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="40">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="39">
         <v>44197</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13">
         <v>1.25</v>
       </c>
-      <c r="D180" s="39"/>
-      <c r="E180" s="9"/>
+      <c r="D180" s="38"/>
+      <c r="E180" s="59">
+        <f t="shared" si="4"/>
+        <v>130.667</v>
+      </c>
       <c r="F180" s="20"/>
       <c r="G180" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H180" s="39"/>
-      <c r="I180" s="9"/>
+      <c r="H180" s="38"/>
+      <c r="I180" s="59">
+        <f t="shared" si="5"/>
+        <v>195.667</v>
+      </c>
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="40">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="39">
         <v>44228</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13">
         <v>1.25</v>
       </c>
-      <c r="D181" s="39"/>
-      <c r="E181" s="9"/>
+      <c r="D181" s="38"/>
+      <c r="E181" s="59">
+        <f t="shared" si="4"/>
+        <v>131.917</v>
+      </c>
       <c r="F181" s="20"/>
       <c r="G181" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H181" s="39"/>
-      <c r="I181" s="9"/>
+      <c r="H181" s="38"/>
+      <c r="I181" s="59">
+        <f t="shared" si="5"/>
+        <v>196.917</v>
+      </c>
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="40">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="39">
         <v>44256</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13">
         <v>1.25</v>
       </c>
-      <c r="D182" s="39"/>
-      <c r="E182" s="9"/>
+      <c r="D182" s="38"/>
+      <c r="E182" s="59">
+        <f t="shared" si="4"/>
+        <v>133.167</v>
+      </c>
       <c r="F182" s="20"/>
       <c r="G182" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H182" s="39"/>
-      <c r="I182" s="9"/>
+      <c r="H182" s="38"/>
+      <c r="I182" s="59">
+        <f t="shared" si="5"/>
+        <v>198.167</v>
+      </c>
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="40">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="39">
         <v>44287</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13">
         <v>1.25</v>
       </c>
-      <c r="D183" s="39"/>
-      <c r="E183" s="9"/>
+      <c r="D183" s="38"/>
+      <c r="E183" s="59">
+        <f t="shared" si="4"/>
+        <v>134.417</v>
+      </c>
       <c r="F183" s="20"/>
       <c r="G183" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H183" s="39"/>
-      <c r="I183" s="9"/>
+      <c r="H183" s="38"/>
+      <c r="I183" s="59">
+        <f t="shared" si="5"/>
+        <v>199.417</v>
+      </c>
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="40">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="39">
         <v>44317</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13">
         <v>1.25</v>
       </c>
-      <c r="D184" s="39"/>
-      <c r="E184" s="9"/>
+      <c r="D184" s="38"/>
+      <c r="E184" s="59">
+        <f t="shared" si="4"/>
+        <v>135.667</v>
+      </c>
       <c r="F184" s="20"/>
       <c r="G184" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H184" s="39"/>
-      <c r="I184" s="9"/>
+      <c r="H184" s="38"/>
+      <c r="I184" s="59">
+        <f t="shared" si="5"/>
+        <v>200.667</v>
+      </c>
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="40">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="39">
         <v>44348</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13">
         <v>1.25</v>
       </c>
-      <c r="D185" s="39"/>
-      <c r="E185" s="9"/>
+      <c r="D185" s="38"/>
+      <c r="E185" s="59">
+        <f t="shared" si="4"/>
+        <v>136.917</v>
+      </c>
       <c r="F185" s="20"/>
       <c r="G185" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H185" s="39"/>
-      <c r="I185" s="9"/>
+      <c r="H185" s="38"/>
+      <c r="I185" s="59">
+        <f t="shared" si="5"/>
+        <v>201.917</v>
+      </c>
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="40">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="39">
         <v>44378</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13">
         <v>1.25</v>
       </c>
-      <c r="D186" s="39"/>
-      <c r="E186" s="9"/>
+      <c r="D186" s="38"/>
+      <c r="E186" s="59">
+        <f t="shared" si="4"/>
+        <v>138.167</v>
+      </c>
       <c r="F186" s="20"/>
       <c r="G186" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H186" s="39"/>
-      <c r="I186" s="9"/>
+      <c r="H186" s="38"/>
+      <c r="I186" s="59">
+        <f t="shared" si="5"/>
+        <v>203.167</v>
+      </c>
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="40">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="39">
         <v>44409</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13">
         <v>1.25</v>
       </c>
-      <c r="D187" s="39"/>
-      <c r="E187" s="9"/>
+      <c r="D187" s="38"/>
+      <c r="E187" s="59">
+        <f t="shared" si="4"/>
+        <v>139.417</v>
+      </c>
       <c r="F187" s="20"/>
       <c r="G187" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H187" s="39"/>
-      <c r="I187" s="9"/>
+      <c r="H187" s="38"/>
+      <c r="I187" s="59">
+        <f t="shared" si="5"/>
+        <v>204.417</v>
+      </c>
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="40">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="39">
         <v>44440</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13">
         <v>1.25</v>
       </c>
-      <c r="D188" s="39"/>
-      <c r="E188" s="9"/>
+      <c r="D188" s="38"/>
+      <c r="E188" s="59">
+        <f t="shared" si="4"/>
+        <v>140.667</v>
+      </c>
       <c r="F188" s="20"/>
       <c r="G188" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H188" s="39"/>
-      <c r="I188" s="9"/>
+      <c r="H188" s="38"/>
+      <c r="I188" s="59">
+        <f t="shared" si="5"/>
+        <v>205.667</v>
+      </c>
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="40">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="39">
         <v>44470</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13">
         <v>1.25</v>
       </c>
-      <c r="D189" s="39"/>
-      <c r="E189" s="9"/>
+      <c r="D189" s="38"/>
+      <c r="E189" s="59">
+        <f t="shared" si="4"/>
+        <v>141.917</v>
+      </c>
       <c r="F189" s="20"/>
       <c r="G189" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H189" s="39"/>
-      <c r="I189" s="9"/>
+      <c r="H189" s="38"/>
+      <c r="I189" s="59">
+        <f t="shared" si="5"/>
+        <v>206.917</v>
+      </c>
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="40">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="39">
         <v>44501</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13">
         <v>1.25</v>
       </c>
-      <c r="D190" s="39"/>
-      <c r="E190" s="9"/>
+      <c r="D190" s="38"/>
+      <c r="E190" s="59">
+        <f t="shared" si="4"/>
+        <v>143.167</v>
+      </c>
       <c r="F190" s="20"/>
       <c r="G190" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H190" s="39"/>
-      <c r="I190" s="9"/>
+      <c r="H190" s="38"/>
+      <c r="I190" s="59">
+        <f t="shared" si="5"/>
+        <v>208.167</v>
+      </c>
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="40">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="39">
         <v>44531</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C191" s="13">
         <v>1.25</v>
       </c>
-      <c r="D191" s="39">
+      <c r="D191" s="38">
         <v>5</v>
       </c>
-      <c r="E191" s="9"/>
+      <c r="E191" s="59">
+        <f t="shared" si="4"/>
+        <v>139.417</v>
+      </c>
       <c r="F191" s="20"/>
       <c r="G191" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H191" s="39"/>
-      <c r="I191" s="9"/>
+      <c r="H191" s="38"/>
+      <c r="I191" s="59">
+        <f t="shared" si="5"/>
+        <v>209.417</v>
+      </c>
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="47" t="s">
-        <v>49</v>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
-      <c r="D192" s="39"/>
-      <c r="E192" s="9"/>
+      <c r="D192" s="38"/>
+      <c r="E192" s="59">
+        <f t="shared" si="4"/>
+        <v>139.417</v>
+      </c>
       <c r="F192" s="20"/>
       <c r="G192" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H192" s="39"/>
-      <c r="I192" s="9"/>
+      <c r="H192" s="38"/>
+      <c r="I192" s="59">
+        <f t="shared" si="5"/>
+        <v>209.417</v>
+      </c>
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="40">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="39">
         <v>44562</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
         <v>1.25</v>
       </c>
-      <c r="D193" s="39"/>
-      <c r="E193" s="9"/>
+      <c r="D193" s="38"/>
+      <c r="E193" s="59">
+        <f t="shared" si="4"/>
+        <v>140.667</v>
+      </c>
       <c r="F193" s="20"/>
       <c r="G193" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H193" s="39"/>
-      <c r="I193" s="9"/>
+      <c r="H193" s="38"/>
+      <c r="I193" s="59">
+        <f t="shared" si="5"/>
+        <v>210.667</v>
+      </c>
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="40">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="39">
         <v>44593</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13">
         <v>1.25</v>
       </c>
-      <c r="D194" s="39"/>
-      <c r="E194" s="9"/>
+      <c r="D194" s="38"/>
+      <c r="E194" s="59">
+        <f t="shared" si="4"/>
+        <v>141.917</v>
+      </c>
       <c r="F194" s="20"/>
       <c r="G194" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H194" s="39"/>
-      <c r="I194" s="9"/>
+      <c r="H194" s="38"/>
+      <c r="I194" s="59">
+        <f t="shared" si="5"/>
+        <v>211.917</v>
+      </c>
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="40">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="39">
         <v>44621</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13">
         <v>1.25</v>
       </c>
-      <c r="D195" s="39"/>
-      <c r="E195" s="9"/>
+      <c r="D195" s="38"/>
+      <c r="E195" s="59">
+        <f t="shared" si="4"/>
+        <v>143.167</v>
+      </c>
       <c r="F195" s="20"/>
       <c r="G195" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H195" s="39"/>
-      <c r="I195" s="9"/>
+      <c r="H195" s="38"/>
+      <c r="I195" s="59">
+        <f t="shared" si="5"/>
+        <v>213.167</v>
+      </c>
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="40">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="39">
         <v>44652</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13">
         <v>1.25</v>
       </c>
-      <c r="D196" s="39"/>
-      <c r="E196" s="9"/>
+      <c r="D196" s="38"/>
+      <c r="E196" s="59">
+        <f t="shared" si="4"/>
+        <v>144.417</v>
+      </c>
       <c r="F196" s="20"/>
       <c r="G196" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H196" s="39"/>
-      <c r="I196" s="9"/>
+      <c r="H196" s="38"/>
+      <c r="I196" s="59">
+        <f t="shared" si="5"/>
+        <v>214.417</v>
+      </c>
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="40">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="39">
         <v>44682</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
         <v>1.25</v>
       </c>
-      <c r="D197" s="39"/>
-      <c r="E197" s="9"/>
+      <c r="D197" s="38"/>
+      <c r="E197" s="59">
+        <f t="shared" si="4"/>
+        <v>145.667</v>
+      </c>
       <c r="F197" s="20"/>
       <c r="G197" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H197" s="39"/>
-      <c r="I197" s="9"/>
+      <c r="H197" s="38"/>
+      <c r="I197" s="59">
+        <f t="shared" si="5"/>
+        <v>215.667</v>
+      </c>
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="40">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="39">
         <v>44713</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13">
         <v>1.25</v>
       </c>
-      <c r="D198" s="39"/>
-      <c r="E198" s="9"/>
+      <c r="D198" s="38"/>
+      <c r="E198" s="59">
+        <f t="shared" si="4"/>
+        <v>146.917</v>
+      </c>
       <c r="F198" s="20"/>
       <c r="G198" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H198" s="39"/>
-      <c r="I198" s="9"/>
+      <c r="H198" s="38"/>
+      <c r="I198" s="59">
+        <f t="shared" si="5"/>
+        <v>216.917</v>
+      </c>
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="40">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="39">
         <v>44743</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C199" s="13">
         <v>1.25</v>
       </c>
-      <c r="D199" s="39"/>
-      <c r="E199" s="9"/>
+      <c r="D199" s="38"/>
+      <c r="E199" s="59">
+        <f t="shared" si="4"/>
+        <v>148.167</v>
+      </c>
       <c r="F199" s="20"/>
       <c r="G199" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H199" s="39">
+      <c r="H199" s="38">
         <v>4</v>
       </c>
-      <c r="I199" s="9"/>
+      <c r="I199" s="59">
+        <f t="shared" si="5"/>
+        <v>214.167</v>
+      </c>
       <c r="J199" s="11"/>
       <c r="K199" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="39">
         <v>44774</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
         <v>1.25</v>
       </c>
-      <c r="D200" s="39"/>
-      <c r="E200" s="9"/>
+      <c r="D200" s="38"/>
+      <c r="E200" s="59">
+        <f t="shared" si="4"/>
+        <v>149.417</v>
+      </c>
       <c r="F200" s="20"/>
       <c r="G200" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H200" s="39"/>
-      <c r="I200" s="9"/>
+      <c r="H200" s="38"/>
+      <c r="I200" s="59">
+        <f t="shared" si="5"/>
+        <v>215.417</v>
+      </c>
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="40">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="39">
         <v>44805</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C201" s="13">
         <v>1.25</v>
       </c>
-      <c r="D201" s="39"/>
-      <c r="E201" s="9"/>
+      <c r="D201" s="38"/>
+      <c r="E201" s="59">
+        <f t="shared" si="4"/>
+        <v>150.667</v>
+      </c>
       <c r="F201" s="20"/>
       <c r="G201" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H201" s="39">
+      <c r="H201" s="38">
         <v>12</v>
       </c>
-      <c r="I201" s="9"/>
+      <c r="I201" s="59">
+        <f t="shared" si="5"/>
+        <v>204.667</v>
+      </c>
       <c r="J201" s="11"/>
       <c r="K201" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="40">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="39">
         <v>44835</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C202" s="13">
         <v>1.25</v>
       </c>
-      <c r="D202" s="39">
+      <c r="D202" s="38">
         <v>3</v>
       </c>
-      <c r="E202" s="9"/>
+      <c r="E202" s="59">
+        <f t="shared" si="4"/>
+        <v>148.917</v>
+      </c>
       <c r="F202" s="20"/>
       <c r="G202" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H202" s="39"/>
-      <c r="I202" s="9"/>
+      <c r="H202" s="38"/>
+      <c r="I202" s="59">
+        <f t="shared" si="5"/>
+        <v>205.917</v>
+      </c>
       <c r="J202" s="11"/>
       <c r="K202" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="40">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="39">
         <v>44866</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C203" s="13">
         <v>1.25</v>
       </c>
-      <c r="D203" s="39"/>
-      <c r="E203" s="9"/>
+      <c r="D203" s="38"/>
+      <c r="E203" s="59">
+        <f t="shared" si="4"/>
+        <v>150.167</v>
+      </c>
       <c r="F203" s="20"/>
       <c r="G203" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H203" s="39">
+      <c r="H203" s="38">
         <v>2</v>
       </c>
-      <c r="I203" s="9"/>
+      <c r="I203" s="59">
+        <f t="shared" si="5"/>
+        <v>205.167</v>
+      </c>
       <c r="J203" s="11"/>
       <c r="K203" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="39"/>
+      <c r="B204" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="40"/>
-      <c r="B204" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="39">
+      <c r="D204" s="38">
         <v>5</v>
       </c>
-      <c r="E204" s="9"/>
+      <c r="E204" s="59">
+        <f t="shared" ref="E204:E218" si="6">SUM(C204,E203)-D204</f>
+        <v>145.167</v>
+      </c>
       <c r="F204" s="20"/>
       <c r="G204" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H204" s="39"/>
-      <c r="I204" s="9"/>
+      <c r="H204" s="38"/>
+      <c r="I204" s="59">
+        <f t="shared" ref="I204:I221" si="7">SUM(G204,I203)-H204</f>
+        <v>205.167</v>
+      </c>
       <c r="J204" s="11"/>
       <c r="K204" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="40">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="39">
         <v>44896</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13">
         <v>1.25</v>
       </c>
-      <c r="D205" s="39"/>
-      <c r="E205" s="9"/>
+      <c r="D205" s="38"/>
+      <c r="E205" s="59">
+        <f t="shared" si="6"/>
+        <v>146.417</v>
+      </c>
       <c r="F205" s="20"/>
       <c r="G205" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H205" s="39"/>
-      <c r="I205" s="9"/>
+      <c r="H205" s="38"/>
+      <c r="I205" s="59">
+        <f t="shared" si="7"/>
+        <v>206.417</v>
+      </c>
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="47" t="s">
-        <v>60</v>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
-      <c r="D206" s="39"/>
-      <c r="E206" s="9"/>
+      <c r="D206" s="38"/>
+      <c r="E206" s="59">
+        <f t="shared" si="6"/>
+        <v>146.417</v>
+      </c>
       <c r="F206" s="20"/>
       <c r="G206" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H206" s="39"/>
-      <c r="I206" s="9"/>
+      <c r="H206" s="38"/>
+      <c r="I206" s="59">
+        <f t="shared" si="7"/>
+        <v>206.417</v>
+      </c>
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="40">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="39">
         <v>44927</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C207" s="13">
         <v>1.25</v>
       </c>
-      <c r="D207" s="39">
+      <c r="D207" s="38">
         <v>2</v>
       </c>
-      <c r="E207" s="9"/>
+      <c r="E207" s="59">
+        <f t="shared" si="6"/>
+        <v>145.667</v>
+      </c>
       <c r="F207" s="20"/>
       <c r="G207" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H207" s="39"/>
-      <c r="I207" s="9"/>
+      <c r="H207" s="38"/>
+      <c r="I207" s="59">
+        <f t="shared" si="7"/>
+        <v>207.667</v>
+      </c>
       <c r="J207" s="11"/>
       <c r="K207" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="40">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="39">
         <v>44958</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13">
         <v>1.25</v>
       </c>
-      <c r="D208" s="39"/>
-      <c r="E208" s="9"/>
+      <c r="D208" s="38"/>
+      <c r="E208" s="59">
+        <f t="shared" si="6"/>
+        <v>146.917</v>
+      </c>
       <c r="F208" s="20"/>
       <c r="G208" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H208" s="39"/>
-      <c r="I208" s="9"/>
+      <c r="H208" s="38"/>
+      <c r="I208" s="59">
+        <f t="shared" si="7"/>
+        <v>208.917</v>
+      </c>
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="40">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="39">
         <v>44986</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
         <v>1.25</v>
       </c>
-      <c r="D209" s="39"/>
-      <c r="E209" s="9"/>
+      <c r="D209" s="38"/>
+      <c r="E209" s="59">
+        <f t="shared" si="6"/>
+        <v>148.167</v>
+      </c>
       <c r="F209" s="20"/>
       <c r="G209" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H209" s="39"/>
-      <c r="I209" s="9"/>
+      <c r="H209" s="38"/>
+      <c r="I209" s="59">
+        <f t="shared" si="7"/>
+        <v>210.167</v>
+      </c>
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="40">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="39">
         <v>45017</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13">
         <v>1.25</v>
       </c>
-      <c r="D210" s="39"/>
-      <c r="E210" s="9"/>
+      <c r="D210" s="38"/>
+      <c r="E210" s="59">
+        <f t="shared" si="6"/>
+        <v>149.417</v>
+      </c>
       <c r="F210" s="20"/>
       <c r="G210" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H210" s="39"/>
-      <c r="I210" s="9"/>
+      <c r="H210" s="38"/>
+      <c r="I210" s="59">
+        <f t="shared" si="7"/>
+        <v>211.417</v>
+      </c>
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="40">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="39">
         <v>45047</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13">
         <v>1.25</v>
       </c>
-      <c r="D211" s="39"/>
-      <c r="E211" s="9"/>
+      <c r="D211" s="38"/>
+      <c r="E211" s="59">
+        <f t="shared" si="6"/>
+        <v>150.667</v>
+      </c>
       <c r="F211" s="20"/>
       <c r="G211" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H211" s="39"/>
-      <c r="I211" s="9"/>
+      <c r="H211" s="38"/>
+      <c r="I211" s="59">
+        <f t="shared" si="7"/>
+        <v>212.667</v>
+      </c>
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="40">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="39">
         <v>45078</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13">
         <v>1.25</v>
       </c>
-      <c r="D212" s="39"/>
-      <c r="E212" s="9"/>
+      <c r="D212" s="38"/>
+      <c r="E212" s="59">
+        <f t="shared" si="6"/>
+        <v>151.917</v>
+      </c>
       <c r="F212" s="20"/>
       <c r="G212" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H212" s="39"/>
-      <c r="I212" s="9"/>
+      <c r="H212" s="38"/>
+      <c r="I212" s="59">
+        <f t="shared" si="7"/>
+        <v>213.917</v>
+      </c>
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="40">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" s="39">
         <v>45108</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13">
         <v>1.25</v>
       </c>
-      <c r="D213" s="39"/>
-      <c r="E213" s="9"/>
+      <c r="D213" s="38"/>
+      <c r="E213" s="59">
+        <f t="shared" si="6"/>
+        <v>153.167</v>
+      </c>
       <c r="F213" s="20"/>
       <c r="G213" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H213" s="39"/>
-      <c r="I213" s="9"/>
+      <c r="H213" s="38"/>
+      <c r="I213" s="59">
+        <f t="shared" si="7"/>
+        <v>215.167</v>
+      </c>
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="40">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="39">
         <v>45139</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13">
         <v>1.25</v>
       </c>
-      <c r="D214" s="39"/>
-      <c r="E214" s="9"/>
+      <c r="D214" s="38"/>
+      <c r="E214" s="59">
+        <f t="shared" si="6"/>
+        <v>154.417</v>
+      </c>
       <c r="F214" s="20"/>
       <c r="G214" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H214" s="39"/>
-      <c r="I214" s="9"/>
+      <c r="H214" s="38"/>
+      <c r="I214" s="59">
+        <f t="shared" si="7"/>
+        <v>216.417</v>
+      </c>
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="40">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" s="39">
         <v>45170</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13">
         <v>1.25</v>
       </c>
-      <c r="D215" s="39"/>
-      <c r="E215" s="9"/>
+      <c r="D215" s="38"/>
+      <c r="E215" s="59">
+        <f t="shared" si="6"/>
+        <v>155.667</v>
+      </c>
       <c r="F215" s="20"/>
       <c r="G215" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H215" s="39"/>
-      <c r="I215" s="9"/>
+      <c r="H215" s="38"/>
+      <c r="I215" s="59">
+        <f t="shared" si="7"/>
+        <v>217.667</v>
+      </c>
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="40">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="39">
         <v>45200</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13">
         <v>1.25</v>
       </c>
-      <c r="D216" s="39"/>
-      <c r="E216" s="9"/>
+      <c r="D216" s="38"/>
+      <c r="E216" s="59">
+        <f t="shared" si="6"/>
+        <v>156.917</v>
+      </c>
       <c r="F216" s="20"/>
       <c r="G216" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H216" s="39"/>
-      <c r="I216" s="9"/>
+      <c r="H216" s="38"/>
+      <c r="I216" s="59">
+        <f t="shared" si="7"/>
+        <v>218.917</v>
+      </c>
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="40">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" s="39">
         <v>45231</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13">
         <v>1.25</v>
       </c>
-      <c r="D217" s="39"/>
-      <c r="E217" s="9"/>
+      <c r="D217" s="38"/>
+      <c r="E217" s="59">
+        <f t="shared" si="6"/>
+        <v>158.167</v>
+      </c>
       <c r="F217" s="20"/>
       <c r="G217" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H217" s="39"/>
-      <c r="I217" s="9"/>
+      <c r="H217" s="38"/>
+      <c r="I217" s="59">
+        <f t="shared" si="7"/>
+        <v>220.167</v>
+      </c>
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="40">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="39">
         <v>45261</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C218" s="13">
         <v>1.25</v>
       </c>
-      <c r="D218" s="39">
+      <c r="D218" s="38">
         <v>5</v>
       </c>
-      <c r="E218" s="9"/>
+      <c r="E218" s="59">
+        <f t="shared" si="6"/>
+        <v>154.417</v>
+      </c>
       <c r="F218" s="20"/>
       <c r="G218" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H218" s="39"/>
-      <c r="I218" s="9"/>
+      <c r="H218" s="38"/>
+      <c r="I218" s="59">
+        <f t="shared" si="7"/>
+        <v>221.417</v>
+      </c>
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="40">
-        <v>45292</v>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="46" t="s">
+        <v>73</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
-      <c r="D219" s="39"/>
-      <c r="E219" s="9"/>
+      <c r="D219" s="38"/>
+      <c r="E219" s="59">
+        <f>SUM(C219,E218)-D219</f>
+        <v>154.417</v>
+      </c>
       <c r="F219" s="20"/>
       <c r="G219" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H219" s="39"/>
-      <c r="I219" s="9"/>
+      <c r="H219" s="38"/>
+      <c r="I219" s="59">
+        <f t="shared" si="7"/>
+        <v>221.417</v>
+      </c>
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="40">
-        <v>45323</v>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="39">
+        <v>45322</v>
       </c>
       <c r="B220" s="20"/>
-      <c r="C220" s="13"/>
-      <c r="D220" s="39"/>
-      <c r="E220" s="9"/>
+      <c r="C220" s="13">
+        <v>1.2080000000000002</v>
+      </c>
+      <c r="D220" s="38"/>
+      <c r="E220" s="59">
+        <f t="shared" ref="E220" si="8">SUM(C220,E219)-D220</f>
+        <v>155.625</v>
+      </c>
       <c r="F220" s="20"/>
-      <c r="G220" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H220" s="39"/>
-      <c r="I220" s="9"/>
+      <c r="G220" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.2080000000000002</v>
+      </c>
+      <c r="H220" s="38"/>
+      <c r="I220" s="59">
+        <f t="shared" si="7"/>
+        <v>222.625</v>
+      </c>
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B221" s="20"/>
-      <c r="C221" s="13"/>
-      <c r="D221" s="39"/>
-      <c r="E221" s="9"/>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="60"/>
+      <c r="B221" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C221" s="62"/>
+      <c r="D221" s="63"/>
+      <c r="E221" s="64"/>
       <c r="F221" s="20"/>
-      <c r="G221" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H221" s="39"/>
-      <c r="I221" s="9"/>
+      <c r="G221" s="13"/>
+      <c r="H221" s="38"/>
+      <c r="I221" s="59">
+        <f t="shared" si="7"/>
+        <v>222.625</v>
+      </c>
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="40">
-        <v>45383</v>
-      </c>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="39"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
-      <c r="D222" s="39"/>
-      <c r="E222" s="9"/>
-      <c r="F222" s="20"/>
-      <c r="G222" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H222" s="39"/>
+      <c r="D222" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E222" s="66"/>
+      <c r="F222" s="67"/>
+      <c r="G222" s="66"/>
+      <c r="H222" s="65" t="s">
+        <v>79</v>
+      </c>
       <c r="I222" s="9"/>
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="40">
-        <v>45413</v>
-      </c>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="39"/>
       <c r="B223" s="20"/>
-      <c r="C223" s="13"/>
-      <c r="D223" s="39"/>
+      <c r="C223" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D223" s="38"/>
       <c r="E223" s="9"/>
       <c r="F223" s="20"/>
-      <c r="G223" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H223" s="39"/>
-      <c r="I223" s="9"/>
-      <c r="J223" s="11"/>
-      <c r="K223" s="20"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="40">
-        <v>45444</v>
-      </c>
+      <c r="G223" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H223" s="63"/>
+      <c r="I223" s="64"/>
+      <c r="J223" s="68"/>
+      <c r="K223" s="69"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="39"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
-      <c r="D224" s="39"/>
+      <c r="D224" s="38"/>
       <c r="E224" s="9"/>
       <c r="F224" s="20"/>
       <c r="G224" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H224" s="39"/>
+      <c r="H224" s="38"/>
       <c r="I224" s="9"/>
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="40">
-        <v>45474</v>
-      </c>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="39"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
-      <c r="D225" s="39"/>
+      <c r="D225" s="38"/>
       <c r="E225" s="9"/>
       <c r="F225" s="20"/>
       <c r="G225" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H225" s="39"/>
+      <c r="H225" s="38"/>
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B226" s="20"/>
-      <c r="C226" s="13"/>
-      <c r="D226" s="39"/>
-      <c r="E226" s="9"/>
-      <c r="F226" s="20"/>
-      <c r="G226" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H226" s="39"/>
-      <c r="I226" s="9"/>
-      <c r="J226" s="11"/>
-      <c r="K226" s="20"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B227" s="20"/>
-      <c r="C227" s="13"/>
-      <c r="D227" s="39"/>
-      <c r="E227" s="9"/>
-      <c r="F227" s="20"/>
-      <c r="G227" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H227" s="39"/>
-      <c r="I227" s="9"/>
-      <c r="J227" s="11"/>
-      <c r="K227" s="20"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="40">
-        <v>45566</v>
-      </c>
-      <c r="B228" s="20"/>
-      <c r="C228" s="13"/>
-      <c r="D228" s="39"/>
-      <c r="E228" s="9"/>
-      <c r="F228" s="20"/>
-      <c r="G228" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H228" s="39"/>
-      <c r="I228" s="9"/>
-      <c r="J228" s="11"/>
-      <c r="K228" s="20"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="40">
-        <v>45597</v>
-      </c>
-      <c r="B229" s="20"/>
-      <c r="C229" s="13"/>
-      <c r="D229" s="39"/>
-      <c r="E229" s="9"/>
-      <c r="F229" s="20"/>
-      <c r="G229" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H229" s="39"/>
-      <c r="I229" s="9"/>
-      <c r="J229" s="11"/>
-      <c r="K229" s="20"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="40">
-        <v>45627</v>
-      </c>
-      <c r="B230" s="20"/>
-      <c r="C230" s="13"/>
-      <c r="D230" s="39"/>
-      <c r="E230" s="9"/>
-      <c r="F230" s="20"/>
-      <c r="G230" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H230" s="39"/>
-      <c r="I230" s="9"/>
-      <c r="J230" s="11"/>
-      <c r="K230" s="20"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="40">
-        <v>45658</v>
-      </c>
-      <c r="B231" s="20"/>
-      <c r="C231" s="13"/>
-      <c r="D231" s="39"/>
-      <c r="E231" s="9"/>
-      <c r="F231" s="20"/>
-      <c r="G231" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H231" s="39"/>
-      <c r="I231" s="9"/>
-      <c r="J231" s="11"/>
-      <c r="K231" s="20"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="40">
-        <v>45689</v>
-      </c>
-      <c r="B232" s="20"/>
-      <c r="C232" s="13"/>
-      <c r="D232" s="39"/>
-      <c r="E232" s="9"/>
-      <c r="F232" s="20"/>
-      <c r="G232" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H232" s="39"/>
-      <c r="I232" s="9"/>
-      <c r="J232" s="11"/>
-      <c r="K232" s="20"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="40">
-        <v>45717</v>
-      </c>
-      <c r="B233" s="20"/>
-      <c r="C233" s="13"/>
-      <c r="D233" s="39"/>
-      <c r="E233" s="9"/>
-      <c r="F233" s="20"/>
-      <c r="G233" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H233" s="39"/>
-      <c r="I233" s="9"/>
-      <c r="J233" s="11"/>
-      <c r="K233" s="20"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="40">
-        <v>45748</v>
-      </c>
-      <c r="B234" s="20"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="39"/>
-      <c r="E234" s="9"/>
-      <c r="F234" s="20"/>
-      <c r="G234" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H234" s="39"/>
-      <c r="I234" s="9"/>
-      <c r="J234" s="11"/>
-      <c r="K234" s="20"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="40">
-        <v>45778</v>
-      </c>
-      <c r="B235" s="20"/>
-      <c r="C235" s="13"/>
-      <c r="D235" s="39"/>
-      <c r="E235" s="9"/>
-      <c r="F235" s="20"/>
-      <c r="G235" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H235" s="39"/>
-      <c r="I235" s="9"/>
-      <c r="J235" s="11"/>
-      <c r="K235" s="20"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="40">
-        <v>45809</v>
-      </c>
-      <c r="B236" s="20"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="39"/>
-      <c r="E236" s="9"/>
-      <c r="F236" s="20"/>
-      <c r="G236" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H236" s="39"/>
-      <c r="I236" s="9"/>
-      <c r="J236" s="11"/>
-      <c r="K236" s="20"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="40">
-        <v>45839</v>
-      </c>
-      <c r="B237" s="20"/>
-      <c r="C237" s="13"/>
-      <c r="D237" s="39"/>
-      <c r="E237" s="9"/>
-      <c r="F237" s="20"/>
-      <c r="G237" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H237" s="39"/>
-      <c r="I237" s="9"/>
-      <c r="J237" s="11"/>
-      <c r="K237" s="20"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="40">
-        <v>45870</v>
-      </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="13"/>
-      <c r="D238" s="39"/>
-      <c r="E238" s="9"/>
-      <c r="F238" s="20"/>
-      <c r="G238" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H238" s="39"/>
-      <c r="I238" s="9"/>
-      <c r="J238" s="11"/>
-      <c r="K238" s="20"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="40">
-        <v>45901</v>
-      </c>
-      <c r="B239" s="20"/>
-      <c r="C239" s="13"/>
-      <c r="D239" s="39"/>
-      <c r="E239" s="9"/>
-      <c r="F239" s="20"/>
-      <c r="G239" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H239" s="39"/>
-      <c r="I239" s="9"/>
-      <c r="J239" s="11"/>
-      <c r="K239" s="20"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="40">
-        <v>45931</v>
-      </c>
-      <c r="B240" s="20"/>
-      <c r="C240" s="13"/>
-      <c r="D240" s="39"/>
-      <c r="E240" s="9"/>
-      <c r="F240" s="20"/>
-      <c r="G240" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H240" s="39"/>
-      <c r="I240" s="9"/>
-      <c r="J240" s="11"/>
-      <c r="K240" s="20"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="40">
-        <v>45962</v>
-      </c>
-      <c r="B241" s="20"/>
-      <c r="C241" s="13"/>
-      <c r="D241" s="39"/>
-      <c r="E241" s="9"/>
-      <c r="F241" s="20"/>
-      <c r="G241" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H241" s="39"/>
-      <c r="I241" s="9"/>
-      <c r="J241" s="11"/>
-      <c r="K241" s="20"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="40">
-        <v>45992</v>
-      </c>
-      <c r="B242" s="20"/>
-      <c r="C242" s="13"/>
-      <c r="D242" s="39"/>
-      <c r="E242" s="9"/>
-      <c r="F242" s="20"/>
-      <c r="G242" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H242" s="39"/>
-      <c r="I242" s="9"/>
-      <c r="J242" s="11"/>
-      <c r="K242" s="20"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="40">
-        <v>46023</v>
-      </c>
-      <c r="B243" s="20"/>
-      <c r="C243" s="13"/>
-      <c r="D243" s="39"/>
-      <c r="E243" s="9"/>
-      <c r="F243" s="20"/>
-      <c r="G243" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H243" s="39"/>
-      <c r="I243" s="9"/>
-      <c r="J243" s="11"/>
-      <c r="K243" s="20"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="40">
-        <v>46054</v>
-      </c>
-      <c r="B244" s="20"/>
-      <c r="C244" s="13"/>
-      <c r="D244" s="39"/>
-      <c r="E244" s="9"/>
-      <c r="F244" s="20"/>
-      <c r="G244" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H244" s="39"/>
-      <c r="I244" s="9"/>
-      <c r="J244" s="11"/>
-      <c r="K244" s="20"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="40">
-        <v>46082</v>
-      </c>
-      <c r="B245" s="20"/>
-      <c r="C245" s="13"/>
-      <c r="D245" s="39"/>
-      <c r="E245" s="9"/>
-      <c r="F245" s="20"/>
-      <c r="G245" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H245" s="39"/>
-      <c r="I245" s="9"/>
-      <c r="J245" s="11"/>
-      <c r="K245" s="20"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="40">
-        <v>46113</v>
-      </c>
-      <c r="B246" s="20"/>
-      <c r="C246" s="13"/>
-      <c r="D246" s="39"/>
-      <c r="E246" s="9"/>
-      <c r="F246" s="20"/>
-      <c r="G246" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H246" s="39"/>
-      <c r="I246" s="9"/>
-      <c r="J246" s="11"/>
-      <c r="K246" s="20"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="40">
-        <v>46143</v>
-      </c>
-      <c r="B247" s="20"/>
-      <c r="C247" s="13"/>
-      <c r="D247" s="39"/>
-      <c r="E247" s="9"/>
-      <c r="F247" s="20"/>
-      <c r="G247" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H247" s="39"/>
-      <c r="I247" s="9"/>
-      <c r="J247" s="11"/>
-      <c r="K247" s="20"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="40">
-        <v>46174</v>
-      </c>
-      <c r="B248" s="20"/>
-      <c r="C248" s="13"/>
-      <c r="D248" s="39"/>
-      <c r="E248" s="9"/>
-      <c r="F248" s="20"/>
-      <c r="G248" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H248" s="39"/>
-      <c r="I248" s="9"/>
-      <c r="J248" s="11"/>
-      <c r="K248" s="20"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="40">
-        <v>46204</v>
-      </c>
-      <c r="B249" s="20"/>
-      <c r="C249" s="13"/>
-      <c r="D249" s="39"/>
-      <c r="E249" s="9"/>
-      <c r="F249" s="20"/>
-      <c r="G249" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H249" s="39"/>
-      <c r="I249" s="9"/>
-      <c r="J249" s="11"/>
-      <c r="K249" s="20"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="40">
-        <v>46235</v>
-      </c>
-      <c r="B250" s="20"/>
-      <c r="C250" s="13"/>
-      <c r="D250" s="39"/>
-      <c r="E250" s="9"/>
-      <c r="F250" s="20"/>
-      <c r="G250" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H250" s="39"/>
-      <c r="I250" s="9"/>
-      <c r="J250" s="11"/>
-      <c r="K250" s="20"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="40">
-        <v>46266</v>
-      </c>
-      <c r="B251" s="20"/>
-      <c r="C251" s="13"/>
-      <c r="D251" s="39"/>
-      <c r="E251" s="9"/>
-      <c r="F251" s="20"/>
-      <c r="G251" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H251" s="39"/>
-      <c r="I251" s="9"/>
-      <c r="J251" s="11"/>
-      <c r="K251" s="20"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="40">
-        <v>46296</v>
-      </c>
-      <c r="B252" s="20"/>
-      <c r="C252" s="13"/>
-      <c r="D252" s="39"/>
-      <c r="E252" s="9"/>
-      <c r="F252" s="20"/>
-      <c r="G252" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H252" s="39"/>
-      <c r="I252" s="9"/>
-      <c r="J252" s="11"/>
-      <c r="K252" s="20"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="40">
-        <v>46327</v>
-      </c>
-      <c r="B253" s="20"/>
-      <c r="C253" s="13"/>
-      <c r="D253" s="39"/>
-      <c r="E253" s="9"/>
-      <c r="F253" s="20"/>
-      <c r="G253" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H253" s="39"/>
-      <c r="I253" s="9"/>
-      <c r="J253" s="11"/>
-      <c r="K253" s="20"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="40">
-        <v>46357</v>
-      </c>
-      <c r="B254" s="20"/>
-      <c r="C254" s="13"/>
-      <c r="D254" s="39"/>
-      <c r="E254" s="9"/>
-      <c r="F254" s="20"/>
-      <c r="G254" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H254" s="39"/>
-      <c r="I254" s="9"/>
-      <c r="J254" s="11"/>
-      <c r="K254" s="20"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="40">
-        <v>46388</v>
-      </c>
-      <c r="B255" s="20"/>
-      <c r="C255" s="13"/>
-      <c r="D255" s="39"/>
-      <c r="E255" s="9"/>
-      <c r="F255" s="20"/>
-      <c r="G255" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H255" s="39"/>
-      <c r="I255" s="9"/>
-      <c r="J255" s="11"/>
-      <c r="K255" s="20"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="40">
-        <v>46419</v>
-      </c>
-      <c r="B256" s="20"/>
-      <c r="C256" s="13"/>
-      <c r="D256" s="39"/>
-      <c r="E256" s="9"/>
-      <c r="F256" s="20"/>
-      <c r="G256" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H256" s="39"/>
-      <c r="I256" s="9"/>
-      <c r="J256" s="11"/>
-      <c r="K256" s="20"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="40">
-        <v>46447</v>
-      </c>
-      <c r="B257" s="20"/>
-      <c r="C257" s="13"/>
-      <c r="D257" s="39"/>
-      <c r="E257" s="9"/>
-      <c r="F257" s="20"/>
-      <c r="G257" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H257" s="39"/>
-      <c r="I257" s="9"/>
-      <c r="J257" s="11"/>
-      <c r="K257" s="20"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="40">
-        <v>46478</v>
-      </c>
-      <c r="B258" s="20"/>
-      <c r="C258" s="13"/>
-      <c r="D258" s="39"/>
-      <c r="E258" s="9"/>
-      <c r="F258" s="20"/>
-      <c r="G258" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H258" s="39"/>
-      <c r="I258" s="9"/>
-      <c r="J258" s="11"/>
-      <c r="K258" s="20"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="40">
-        <v>46508</v>
-      </c>
-      <c r="B259" s="20"/>
-      <c r="C259" s="13"/>
-      <c r="D259" s="39"/>
-      <c r="E259" s="9"/>
-      <c r="F259" s="20"/>
-      <c r="G259" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H259" s="39"/>
-      <c r="I259" s="9"/>
-      <c r="J259" s="11"/>
-      <c r="K259" s="20"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="40">
-        <v>46539</v>
-      </c>
-      <c r="B260" s="20"/>
-      <c r="C260" s="13"/>
-      <c r="D260" s="39"/>
-      <c r="E260" s="9"/>
-      <c r="F260" s="20"/>
-      <c r="G260" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H260" s="39"/>
-      <c r="I260" s="9"/>
-      <c r="J260" s="11"/>
-      <c r="K260" s="20"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="40">
-        <v>46569</v>
-      </c>
-      <c r="B261" s="20"/>
-      <c r="C261" s="13"/>
-      <c r="D261" s="39"/>
-      <c r="E261" s="9"/>
-      <c r="F261" s="20"/>
-      <c r="G261" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H261" s="39"/>
-      <c r="I261" s="9"/>
-      <c r="J261" s="11"/>
-      <c r="K261" s="20"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="40">
-        <v>46600</v>
-      </c>
-      <c r="B262" s="15"/>
-      <c r="C262" s="41"/>
-      <c r="D262" s="42"/>
-      <c r="E262" s="9"/>
-      <c r="F262" s="15"/>
-      <c r="G262" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H262" s="42"/>
-      <c r="I262" s="9"/>
-      <c r="J262" s="12"/>
-      <c r="K262" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6620,10 +7288,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6634,10 +7302,10 @@
 CITY OF TAGAYTAY
 EMPLOYEE'S LEAVE CARD</oddHeader>
     <oddFooter>&amp;L
-PREPARED BY: ___________________
+PREPARED BY:&amp;U JUEL D. COPER&amp;U
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                            OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -6646,41 +7314,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="57" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6696,54 +7364,54 @@
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="44">
+      <c r="G3" s="43">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="35">
+      <c r="J3" s="45"/>
+      <c r="K3" s="34">
         <f>J4-1</f>
         <v>-1</v>
       </c>
-      <c r="L3" s="44" t="str">
+      <c r="L3" s="43" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -6755,20 +7423,20 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="I6" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" s="44"/>
+      <c r="I6" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>375.834</v>
-      </c>
-      <c r="C7" s="37">
+        <v>378.25</v>
+      </c>
+      <c r="C7" s="36">
         <v>1</v>
       </c>
       <c r="D7" s="33">
@@ -6780,22 +7448,22 @@
       <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="45"/>
+      <c r="G7" s="44"/>
       <c r="I7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="K7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="30" t="s">
-        <v>41</v>
-      </c>
       <c r="L7" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="36">
         <v>2</v>
       </c>
       <c r="D8" s="33">
@@ -6813,15 +7481,15 @@
       <c r="J8" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="35">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="35">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="37">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="36">
         <v>3</v>
       </c>
       <c r="D9" s="33">
@@ -6839,15 +7507,15 @@
       <c r="J9" s="33">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="35">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="35">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="37">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="36">
         <v>4</v>
       </c>
       <c r="D10" s="33">
@@ -6865,15 +7533,15 @@
       <c r="J10" s="33">
         <v>0.125</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="35">
         <v>0.125</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="35">
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="37">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="36">
         <v>5</v>
       </c>
       <c r="D11" s="33">
@@ -6891,15 +7559,15 @@
       <c r="J11" s="33">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="35">
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="37">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="36">
         <v>6</v>
       </c>
       <c r="D12" s="33">
@@ -6917,15 +7585,15 @@
       <c r="J12" s="33">
         <v>0.20800000000000002</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="35">
         <v>0.20800000000000002</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="35">
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="37">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="36">
         <v>7</v>
       </c>
       <c r="D13" s="33">
@@ -6943,15 +7611,15 @@
       <c r="J13" s="33">
         <v>0.25</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="35">
         <v>0.25</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="35">
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="37">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="36">
         <v>8</v>
       </c>
       <c r="D14" s="33">
@@ -6969,15 +7637,15 @@
       <c r="J14" s="33">
         <v>0.29199999999999998</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="35">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="35">
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="37">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="36">
         <v>9</v>
       </c>
       <c r="D15" s="33">
@@ -6989,15 +7657,15 @@
       <c r="J15" s="33">
         <v>0.33299999999999996</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="35">
         <v>0.33299999999999996</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="35">
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="37">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="36">
         <v>10</v>
       </c>
       <c r="D16" s="33">
@@ -7009,15 +7677,15 @@
       <c r="J16" s="33">
         <v>0.37499999999999994</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="35">
         <v>0.37499999999999994</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="35">
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="37">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="36">
         <v>11</v>
       </c>
       <c r="D17" s="33">
@@ -7029,15 +7697,15 @@
       <c r="J17" s="33">
         <v>0.41699999999999993</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="35">
         <v>0.41699999999999993</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="35">
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="37">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="36">
         <v>12</v>
       </c>
       <c r="D18" s="33">
@@ -7050,15 +7718,15 @@
       <c r="J18" s="33">
         <v>0.45799999999999991</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="35">
         <v>0.45799999999999991</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="35">
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="37">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="36">
         <v>13</v>
       </c>
       <c r="D19" s="33">
@@ -7071,15 +7739,15 @@
       <c r="J19" s="33">
         <v>0.49999999999999989</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="35">
         <v>0.49999999999999989</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="35">
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="37">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="36">
         <v>14</v>
       </c>
       <c r="D20" s="33">
@@ -7092,15 +7760,15 @@
       <c r="J20" s="33">
         <v>0.54199999999999993</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="35">
         <v>0.54199999999999993</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="35">
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="37">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="36">
         <v>15</v>
       </c>
       <c r="D21" s="33">
@@ -7113,15 +7781,15 @@
       <c r="J21" s="33">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="35">
         <v>0.58299999999999996</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="35">
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="37">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="36">
         <v>16</v>
       </c>
       <c r="D22" s="33">
@@ -7134,15 +7802,15 @@
       <c r="J22" s="33">
         <v>0.625</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="35">
         <v>0.625</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="35">
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="37">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="36">
         <v>17</v>
       </c>
       <c r="D23" s="33">
@@ -7155,15 +7823,15 @@
       <c r="J23" s="33">
         <v>0.66700000000000004</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="35">
         <v>0.66700000000000004</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="35">
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="37">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="36">
         <v>18</v>
       </c>
       <c r="D24" s="33">
@@ -7176,15 +7844,15 @@
       <c r="J24" s="33">
         <v>0.70800000000000007</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="35">
         <v>0.70800000000000007</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="35">
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="37">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="36">
         <v>19</v>
       </c>
       <c r="D25" s="33">
@@ -7197,15 +7865,15 @@
       <c r="J25" s="33">
         <v>0.75000000000000011</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="35">
         <v>0.75000000000000011</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="35">
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="37">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="36">
         <v>20</v>
       </c>
       <c r="D26" s="33">
@@ -7218,15 +7886,15 @@
       <c r="J26" s="33">
         <v>0.79200000000000015</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="35">
         <v>0.79200000000000015</v>
       </c>
-      <c r="L26" s="36">
+      <c r="L26" s="35">
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="37">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="36">
         <v>21</v>
       </c>
       <c r="D27" s="33">
@@ -7239,15 +7907,15 @@
       <c r="J27" s="33">
         <v>0.83300000000000018</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="35">
         <v>0.83300000000000018</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="35">
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="37">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="36">
         <v>22</v>
       </c>
       <c r="D28" s="33">
@@ -7260,15 +7928,15 @@
       <c r="J28" s="33">
         <v>0.87500000000000022</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="35">
         <v>0.87500000000000022</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="35">
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="37">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="36">
         <v>23</v>
       </c>
       <c r="D29" s="33">
@@ -7281,15 +7949,15 @@
       <c r="J29" s="33">
         <v>0.91700000000000026</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="35">
         <v>0.91700000000000026</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="35">
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="37">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="36">
         <v>24</v>
       </c>
       <c r="D30" s="33">
@@ -7302,15 +7970,15 @@
       <c r="J30" s="33">
         <v>0.9580000000000003</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="35">
         <v>0.9580000000000003</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="35">
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="37">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="36">
         <v>25</v>
       </c>
       <c r="D31" s="33">
@@ -7323,15 +7991,15 @@
       <c r="J31" s="33">
         <v>1.0000000000000002</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="35">
         <v>1.0000000000000002</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="35">
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="37">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="36">
         <v>26</v>
       </c>
       <c r="D32" s="33">
@@ -7344,15 +8012,15 @@
       <c r="J32" s="33">
         <v>1.0420000000000003</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="35">
         <v>1.0420000000000003</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="35">
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="37">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="36">
         <v>27</v>
       </c>
       <c r="D33" s="33">
@@ -7365,15 +8033,15 @@
       <c r="J33" s="33">
         <v>1.0830000000000002</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="35">
         <v>1.0830000000000002</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="35">
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="37">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="36">
         <v>28</v>
       </c>
       <c r="D34" s="33">
@@ -7386,15 +8054,15 @@
       <c r="J34" s="33">
         <v>1.1250000000000002</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="35">
         <v>1.1250000000000002</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="35">
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="37">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="36">
         <v>29</v>
       </c>
       <c r="D35" s="33">
@@ -7407,15 +8075,15 @@
       <c r="J35" s="33">
         <v>1.1670000000000003</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="35">
         <v>1.1670000000000003</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="35">
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="37">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="36">
         <v>30</v>
       </c>
       <c r="D36" s="33">
@@ -7428,15 +8096,15 @@
       <c r="J36" s="33">
         <v>1.2080000000000002</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="35">
         <v>1.2080000000000002</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="35">
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="37">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="36">
         <v>31</v>
       </c>
       <c r="D37" s="33">
@@ -7449,15 +8117,15 @@
       <c r="J37" s="33">
         <v>1.2500000000000002</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="35">
         <v>1.2500000000000002</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="35">
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="37">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="36">
         <v>32</v>
       </c>
       <c r="D38" s="33">
@@ -7465,8 +8133,8 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="37">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="36">
         <v>33</v>
       </c>
       <c r="D39" s="33">
@@ -7474,8 +8142,8 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="37">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="36">
         <v>34</v>
       </c>
       <c r="D40" s="33">
@@ -7483,8 +8151,8 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="37">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="36">
         <v>35</v>
       </c>
       <c r="D41" s="33">
@@ -7492,8 +8160,8 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="37">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="36">
         <v>36</v>
       </c>
       <c r="D42" s="33">
@@ -7501,8 +8169,8 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="37">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="36">
         <v>37</v>
       </c>
       <c r="D43" s="33">
@@ -7510,8 +8178,8 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="37">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="36">
         <v>38</v>
       </c>
       <c r="D44" s="33">
@@ -7519,8 +8187,8 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="37">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="36">
         <v>39</v>
       </c>
       <c r="D45" s="33">
@@ -7528,8 +8196,8 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="37">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="36">
         <v>40</v>
       </c>
       <c r="D46" s="33">
@@ -7537,8 +8205,8 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="37">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="36">
         <v>41</v>
       </c>
       <c r="D47" s="33">
@@ -7546,8 +8214,8 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="37">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="36">
         <v>42</v>
       </c>
       <c r="D48" s="33">
@@ -7555,8 +8223,8 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="37">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="36">
         <v>43</v>
       </c>
       <c r="D49" s="33">
@@ -7564,8 +8232,8 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="37">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="36">
         <v>44</v>
       </c>
       <c r="D50" s="33">
@@ -7573,8 +8241,8 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="37">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="36">
         <v>45</v>
       </c>
       <c r="D51" s="33">
@@ -7582,8 +8250,8 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="37">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="36">
         <v>46</v>
       </c>
       <c r="D52" s="33">
@@ -7591,8 +8259,8 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="37">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="36">
         <v>47</v>
       </c>
       <c r="D53" s="33">
@@ -7600,8 +8268,8 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="37">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="36">
         <v>48</v>
       </c>
       <c r="D54" s="33">
@@ -7609,8 +8277,8 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="37">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="36">
         <v>49</v>
       </c>
       <c r="D55" s="33">
@@ -7618,8 +8286,8 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="37">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="36">
         <v>50</v>
       </c>
       <c r="D56" s="33">
@@ -7627,8 +8295,8 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="37">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="36">
         <v>51</v>
       </c>
       <c r="D57" s="33">
@@ -7636,8 +8304,8 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="37">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="36">
         <v>52</v>
       </c>
       <c r="D58" s="33">
@@ -7645,8 +8313,8 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="37">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="36">
         <v>53</v>
       </c>
       <c r="D59" s="33">
@@ -7654,8 +8322,8 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="37">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="36">
         <v>54</v>
       </c>
       <c r="D60" s="33">
@@ -7663,8 +8331,8 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="37">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="36">
         <v>55</v>
       </c>
       <c r="D61" s="33">
@@ -7672,8 +8340,8 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="37">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="36">
         <v>56</v>
       </c>
       <c r="D62" s="33">
@@ -7681,8 +8349,8 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="37">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="36">
         <v>57</v>
       </c>
       <c r="D63" s="33">
@@ -7690,8 +8358,8 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="37">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="36">
         <v>58</v>
       </c>
       <c r="D64" s="33">
@@ -7699,8 +8367,8 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="37">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="36">
         <v>59</v>
       </c>
       <c r="D65" s="33">
@@ -7708,8 +8376,8 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="37">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="36">
         <v>60</v>
       </c>
       <c r="D66" s="33">
@@ -7717,7 +8385,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
